--- a/game/resultspace/ФОН/МЭР ФОН сырой.xlsx
+++ b/game/resultspace/ФОН/МЭР ФОН сырой.xlsx
@@ -558,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BJ32"/>
+  <dimension ref="A1:BJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>43833</v>
+        <v>43835</v>
       </c>
       <c r="C3">
         <v>-0</v>
@@ -978,7 +978,7 @@
         <v>-0</v>
       </c>
       <c r="N3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>-0</v>
@@ -990,7 +990,7 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>-0</v>
@@ -1002,7 +1002,7 @@
         <v>-0</v>
       </c>
       <c r="V3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>-0</v>
@@ -1014,7 +1014,7 @@
         <v>-0</v>
       </c>
       <c r="Z3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>-0</v>
@@ -1026,7 +1026,7 @@
         <v>-0</v>
       </c>
       <c r="AD3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>-0</v>
@@ -1038,88 +1038,88 @@
         <v>-0</v>
       </c>
       <c r="AH3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AJ3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AK3">
-        <v>45239.43359375</v>
+        <v>-0</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>59.99979400634766</v>
+        <v>-0</v>
       </c>
       <c r="AN3">
-        <v>59.99979400634766</v>
+        <v>-0</v>
       </c>
       <c r="AO3">
-        <v>13569.9541015625</v>
+        <v>-0</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AR3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AS3">
-        <v>45239.43359375</v>
+        <v>-0</v>
       </c>
       <c r="AT3">
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AV3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AW3">
-        <v>45239.43359375</v>
+        <v>-0</v>
       </c>
       <c r="AX3">
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AZ3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="BA3">
-        <v>45239.43359375</v>
+        <v>-0</v>
       </c>
       <c r="BB3">
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>159.99853515625</v>
+        <v>-0</v>
       </c>
       <c r="BD3">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="BE3">
-        <v>36191.21484375</v>
+        <v>-0</v>
       </c>
       <c r="BF3">
         <v>0</v>
       </c>
       <c r="BG3">
-        <v>159.9997863769531</v>
+        <v>-0</v>
       </c>
       <c r="BH3">
-        <v>159.9997863769531</v>
+        <v>-0</v>
       </c>
       <c r="BI3">
-        <v>36191.3515625</v>
+        <v>-0</v>
       </c>
       <c r="BJ3">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>43833.41077546297</v>
+        <v>43844</v>
       </c>
       <c r="C4">
         <v>-0</v>
@@ -1166,7 +1166,7 @@
         <v>-0</v>
       </c>
       <c r="N4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>-0</v>
@@ -1178,7 +1178,7 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>-0</v>
@@ -1190,7 +1190,7 @@
         <v>-0</v>
       </c>
       <c r="V4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>-0</v>
@@ -1202,7 +1202,7 @@
         <v>-0</v>
       </c>
       <c r="Z4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>-0</v>
@@ -1214,7 +1214,7 @@
         <v>-0</v>
       </c>
       <c r="AD4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>-0</v>
@@ -1226,88 +1226,88 @@
         <v>-0</v>
       </c>
       <c r="AH4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AJ4">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AK4">
-        <v>45239.41796875</v>
+        <v>-0</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>70</v>
+        <v>-0</v>
       </c>
       <c r="AN4">
-        <v>70</v>
+        <v>-0</v>
       </c>
       <c r="AO4">
-        <v>15853.4873046875</v>
+        <v>-0</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AR4">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AS4">
-        <v>45239.453125</v>
+        <v>-0</v>
       </c>
       <c r="AT4">
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AV4">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AW4">
-        <v>45239.7421875</v>
+        <v>-0</v>
       </c>
       <c r="AX4">
         <v>0</v>
       </c>
       <c r="AY4">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AZ4">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="BA4">
-        <v>45239.44921875</v>
+        <v>-0</v>
       </c>
       <c r="BB4">
         <v>0</v>
       </c>
       <c r="BC4">
-        <v>159.9985046386719</v>
+        <v>-0</v>
       </c>
       <c r="BD4">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="BE4">
-        <v>36191.19140625</v>
+        <v>-0</v>
       </c>
       <c r="BF4">
         <v>0</v>
       </c>
       <c r="BG4">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="BH4">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="BI4">
-        <v>36196.51171875</v>
+        <v>-0</v>
       </c>
       <c r="BJ4">
         <v>0</v>
@@ -1318,7 +1318,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>43834</v>
+        <v>43871</v>
       </c>
       <c r="C5">
         <v>-0</v>
@@ -1354,7 +1354,7 @@
         <v>-0</v>
       </c>
       <c r="N5">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>-0</v>
@@ -1366,7 +1366,7 @@
         <v>-0</v>
       </c>
       <c r="R5">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>-0</v>
@@ -1378,7 +1378,7 @@
         <v>-0</v>
       </c>
       <c r="V5">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>-0</v>
@@ -1390,7 +1390,7 @@
         <v>-0</v>
       </c>
       <c r="Z5">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>-0</v>
@@ -1402,7 +1402,7 @@
         <v>-0</v>
       </c>
       <c r="AD5">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>-0</v>
@@ -1414,88 +1414,88 @@
         <v>-0</v>
       </c>
       <c r="AH5">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AJ5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AK5">
-        <v>45239.421875</v>
+        <v>-0</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>70</v>
+        <v>-0</v>
       </c>
       <c r="AN5">
-        <v>70</v>
+        <v>-0</v>
       </c>
       <c r="AO5">
-        <v>15852.0966796875</v>
+        <v>-0</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AR5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AS5">
-        <v>45239.453125</v>
+        <v>-0</v>
       </c>
       <c r="AT5">
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AV5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AW5">
-        <v>45239.734375</v>
+        <v>-0</v>
       </c>
       <c r="AX5">
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AZ5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="BA5">
-        <v>45239.44921875</v>
+        <v>-0</v>
       </c>
       <c r="BB5">
         <v>0</v>
       </c>
       <c r="BC5">
-        <v>159.9984436035156</v>
+        <v>-0</v>
       </c>
       <c r="BD5">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="BE5">
-        <v>36191.17578125</v>
+        <v>-0</v>
       </c>
       <c r="BF5">
         <v>0</v>
       </c>
       <c r="BG5">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="BH5">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="BI5">
-        <v>36196.4296875</v>
+        <v>-0</v>
       </c>
       <c r="BJ5">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>43835</v>
+        <v>43927</v>
       </c>
       <c r="C6">
         <v>-0</v>
@@ -1542,7 +1542,7 @@
         <v>-0</v>
       </c>
       <c r="N6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>-0</v>
@@ -1554,7 +1554,7 @@
         <v>-0</v>
       </c>
       <c r="R6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>-0</v>
@@ -1566,7 +1566,7 @@
         <v>-0</v>
       </c>
       <c r="V6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>-0</v>
@@ -1578,7 +1578,7 @@
         <v>-0</v>
       </c>
       <c r="Z6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>-0</v>
@@ -1590,7 +1590,7 @@
         <v>-0</v>
       </c>
       <c r="AD6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>-0</v>
@@ -1602,88 +1602,88 @@
         <v>-0</v>
       </c>
       <c r="AH6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>193.7852478027344</v>
+        <v>-0</v>
       </c>
       <c r="AJ6">
-        <v>193.7852478027344</v>
+        <v>-0</v>
       </c>
       <c r="AK6">
-        <v>43833.6640625</v>
+        <v>-0</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>75</v>
+        <v>-0</v>
       </c>
       <c r="AN6">
-        <v>75</v>
+        <v>-0</v>
       </c>
       <c r="AO6">
-        <v>16981.97265625</v>
+        <v>-0</v>
       </c>
       <c r="AP6">
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AR6">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AS6">
-        <v>45239.453125</v>
+        <v>-0</v>
       </c>
       <c r="AT6">
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AV6">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AW6">
-        <v>45239.72265625</v>
+        <v>-0</v>
       </c>
       <c r="AX6">
         <v>0</v>
       </c>
       <c r="AY6">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AZ6">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="BA6">
-        <v>45239.4453125</v>
+        <v>-0</v>
       </c>
       <c r="BB6">
         <v>0</v>
       </c>
       <c r="BC6">
-        <v>159.9984130859375</v>
+        <v>-0</v>
       </c>
       <c r="BD6">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="BE6">
-        <v>36191.16796875</v>
+        <v>-0</v>
       </c>
       <c r="BF6">
         <v>0</v>
       </c>
       <c r="BG6">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="BH6">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="BI6">
-        <v>36196.26171875</v>
+        <v>-0</v>
       </c>
       <c r="BJ6">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>43836</v>
+        <v>43983</v>
       </c>
       <c r="C7">
         <v>-0</v>
@@ -1730,7 +1730,7 @@
         <v>-0</v>
       </c>
       <c r="N7">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>-0</v>
@@ -1742,7 +1742,7 @@
         <v>-0</v>
       </c>
       <c r="R7">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>-0</v>
@@ -1754,7 +1754,7 @@
         <v>-0</v>
       </c>
       <c r="V7">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>-0</v>
@@ -1766,7 +1766,7 @@
         <v>-0</v>
       </c>
       <c r="Z7">
-        <v>371.9776916503906</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>-0</v>
@@ -1778,7 +1778,7 @@
         <v>-0</v>
       </c>
       <c r="AD7">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>-0</v>
@@ -1790,88 +1790,88 @@
         <v>-0</v>
       </c>
       <c r="AH7">
-        <v>378.5968017578125</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>178.1334686279297</v>
+        <v>-0</v>
       </c>
       <c r="AJ7">
-        <v>178.1334686279297</v>
+        <v>-0</v>
       </c>
       <c r="AK7">
-        <v>40293.27734375</v>
+        <v>-0</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>80.09777069091797</v>
+        <v>-0</v>
       </c>
       <c r="AN7">
-        <v>80.09777069091797</v>
+        <v>-0</v>
       </c>
       <c r="AO7">
-        <v>18133.798828125</v>
+        <v>-0</v>
       </c>
       <c r="AP7">
         <v>0</v>
       </c>
       <c r="AQ7">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AR7">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AS7">
-        <v>45239.453125</v>
+        <v>-0</v>
       </c>
       <c r="AT7">
         <v>0</v>
       </c>
       <c r="AU7">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AV7">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AW7">
-        <v>45239.70703125</v>
+        <v>-0</v>
       </c>
       <c r="AX7">
         <v>0</v>
       </c>
       <c r="AY7">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AZ7">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="BA7">
-        <v>45239.4453125</v>
+        <v>-0</v>
       </c>
       <c r="BB7">
         <v>0</v>
       </c>
       <c r="BC7">
-        <v>159.9983673095703</v>
+        <v>-0</v>
       </c>
       <c r="BD7">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="BE7">
-        <v>36191.15625</v>
+        <v>-0</v>
       </c>
       <c r="BF7">
         <v>0</v>
       </c>
       <c r="BG7">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="BH7">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="BI7">
-        <v>36196.0546875</v>
+        <v>-0</v>
       </c>
       <c r="BJ7">
         <v>0</v>
@@ -1882,7 +1882,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>43839</v>
+        <v>43984</v>
       </c>
       <c r="C8">
         <v>-0</v>
@@ -1918,7 +1918,7 @@
         <v>-0</v>
       </c>
       <c r="N8">
-        <v>237.8283233642578</v>
+        <v>400</v>
       </c>
       <c r="O8">
         <v>-0</v>
@@ -1930,7 +1930,7 @@
         <v>-0</v>
       </c>
       <c r="R8">
-        <v>225.0391693115234</v>
+        <v>400</v>
       </c>
       <c r="S8">
         <v>-0</v>
@@ -1942,7 +1942,7 @@
         <v>-0</v>
       </c>
       <c r="V8">
-        <v>275.1973266601562</v>
+        <v>400</v>
       </c>
       <c r="W8">
         <v>-0</v>
@@ -1954,7 +1954,7 @@
         <v>-0</v>
       </c>
       <c r="Z8">
-        <v>218.3870544433594</v>
+        <v>400</v>
       </c>
       <c r="AA8">
         <v>-0</v>
@@ -1966,7 +1966,7 @@
         <v>-0</v>
       </c>
       <c r="AD8">
-        <v>230.6328582763672</v>
+        <v>400</v>
       </c>
       <c r="AE8">
         <v>-0</v>
@@ -1978,28 +1978,28 @@
         <v>-0</v>
       </c>
       <c r="AH8">
-        <v>215.9636840820312</v>
+        <v>400</v>
       </c>
       <c r="AI8">
-        <v>199.9989471435547</v>
+        <v>200</v>
       </c>
       <c r="AJ8">
         <v>200</v>
       </c>
       <c r="AK8">
-        <v>45239.19140625</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
-        <v>79.599365234375</v>
+        <v>60</v>
       </c>
       <c r="AN8">
-        <v>79.599365234375</v>
+        <v>60</v>
       </c>
       <c r="AO8">
-        <v>18015.74609375</v>
+        <v>13571.830078125</v>
       </c>
       <c r="AP8">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>200</v>
       </c>
       <c r="AS8">
-        <v>45229.875</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>200</v>
       </c>
       <c r="AW8">
-        <v>45222.69140625</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AX8">
         <v>0</v>
@@ -2035,19 +2035,19 @@
         <v>200</v>
       </c>
       <c r="BA8">
-        <v>45227.89453125</v>
+        <v>45239.43359375</v>
       </c>
       <c r="BB8">
         <v>0</v>
       </c>
       <c r="BC8">
-        <v>159.998291015625</v>
+        <v>159.99853515625</v>
       </c>
       <c r="BD8">
         <v>160</v>
       </c>
       <c r="BE8">
-        <v>36191.140625</v>
+        <v>36191.21484375</v>
       </c>
       <c r="BF8">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>160</v>
       </c>
       <c r="BI8">
-        <v>36193.59765625</v>
+        <v>36191.546875</v>
       </c>
       <c r="BJ8">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>43848</v>
+        <v>43984.08185185185</v>
       </c>
       <c r="C9">
         <v>-0</v>
@@ -2106,7 +2106,7 @@
         <v>-0</v>
       </c>
       <c r="N9">
-        <v>104.2868957519531</v>
+        <v>400</v>
       </c>
       <c r="O9">
         <v>-0</v>
@@ -2118,7 +2118,7 @@
         <v>-0</v>
       </c>
       <c r="R9">
-        <v>94.55279541015624</v>
+        <v>400</v>
       </c>
       <c r="S9">
         <v>-0</v>
@@ -2130,7 +2130,7 @@
         <v>-0</v>
       </c>
       <c r="V9">
-        <v>113.2165908813477</v>
+        <v>400</v>
       </c>
       <c r="W9">
         <v>-0</v>
@@ -2142,7 +2142,7 @@
         <v>-0</v>
       </c>
       <c r="Z9">
-        <v>99.60940551757812</v>
+        <v>400</v>
       </c>
       <c r="AA9">
         <v>-0</v>
@@ -2154,7 +2154,7 @@
         <v>-0</v>
       </c>
       <c r="AD9">
-        <v>100.7277679443359</v>
+        <v>400</v>
       </c>
       <c r="AE9">
         <v>-0</v>
@@ -2166,28 +2166,28 @@
         <v>-0</v>
       </c>
       <c r="AH9">
-        <v>96.70323181152344</v>
+        <v>400</v>
       </c>
       <c r="AI9">
-        <v>199.9987945556641</v>
+        <v>200</v>
       </c>
       <c r="AJ9">
         <v>200</v>
       </c>
       <c r="AK9">
-        <v>45239.16015625</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
-        <v>78.71120452880859</v>
+        <v>70</v>
       </c>
       <c r="AN9">
-        <v>78.71120452880859</v>
+        <v>70</v>
       </c>
       <c r="AO9">
-        <v>17807.78125</v>
+        <v>15833.80078125</v>
       </c>
       <c r="AP9">
         <v>0</v>
@@ -2199,7 +2199,7 @@
         <v>200</v>
       </c>
       <c r="AS9">
-        <v>45199.140625</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AT9">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>200</v>
       </c>
       <c r="AW9">
-        <v>45183.31640625</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AX9">
         <v>0</v>
@@ -2223,19 +2223,19 @@
         <v>200</v>
       </c>
       <c r="BA9">
-        <v>45194.6875</v>
+        <v>45239.43359375</v>
       </c>
       <c r="BB9">
         <v>0</v>
       </c>
       <c r="BC9">
-        <v>159.9981994628906</v>
+        <v>159.9985656738281</v>
       </c>
       <c r="BD9">
         <v>160</v>
       </c>
       <c r="BE9">
-        <v>36191.125</v>
+        <v>36191.22265625</v>
       </c>
       <c r="BF9">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>160</v>
       </c>
       <c r="BI9">
-        <v>36168.6015625</v>
+        <v>36191.546875</v>
       </c>
       <c r="BJ9">
         <v>0</v>
@@ -2258,7 +2258,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>43875</v>
+        <v>43984.32747685185</v>
       </c>
       <c r="C10">
         <v>-0</v>
@@ -2294,7 +2294,7 @@
         <v>-0</v>
       </c>
       <c r="N10">
-        <v>38.77456665039063</v>
+        <v>400</v>
       </c>
       <c r="O10">
         <v>-0</v>
@@ -2306,7 +2306,7 @@
         <v>-0</v>
       </c>
       <c r="R10">
-        <v>33.90179061889648</v>
+        <v>400</v>
       </c>
       <c r="S10">
         <v>-0</v>
@@ -2318,7 +2318,7 @@
         <v>-0</v>
       </c>
       <c r="V10">
-        <v>41.05184936523438</v>
+        <v>400</v>
       </c>
       <c r="W10">
         <v>-0</v>
@@ -2330,7 +2330,7 @@
         <v>-0</v>
       </c>
       <c r="Z10">
-        <v>39.73114395141602</v>
+        <v>400</v>
       </c>
       <c r="AA10">
         <v>-0</v>
@@ -2342,7 +2342,7 @@
         <v>-0</v>
       </c>
       <c r="AD10">
-        <v>37.4748420715332</v>
+        <v>400</v>
       </c>
       <c r="AE10">
         <v>-0</v>
@@ -2354,28 +2354,28 @@
         <v>-0</v>
       </c>
       <c r="AH10">
-        <v>37.1927375793457</v>
+        <v>400</v>
       </c>
       <c r="AI10">
-        <v>199.9986114501953</v>
+        <v>200</v>
       </c>
       <c r="AJ10">
         <v>200</v>
       </c>
       <c r="AK10">
-        <v>45239.1171875</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
-        <v>77.10918426513672</v>
+        <v>70</v>
       </c>
       <c r="AN10">
-        <v>77.10918426513672</v>
+        <v>70</v>
       </c>
       <c r="AO10">
-        <v>17441.458984375</v>
+        <v>15833.80078125</v>
       </c>
       <c r="AP10">
         <v>0</v>
@@ -2387,7 +2387,7 @@
         <v>200</v>
       </c>
       <c r="AS10">
-        <v>45379.578125</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AT10">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>200</v>
       </c>
       <c r="AW10">
-        <v>45522.1875</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AX10">
         <v>0</v>
@@ -2411,19 +2411,19 @@
         <v>200</v>
       </c>
       <c r="BA10">
-        <v>45423.9296875</v>
+        <v>45239.43359375</v>
       </c>
       <c r="BB10">
         <v>0</v>
       </c>
       <c r="BC10">
-        <v>159.9980926513672</v>
+        <v>159.9985198974609</v>
       </c>
       <c r="BD10">
         <v>160</v>
       </c>
       <c r="BE10">
-        <v>36191.10546875</v>
+        <v>36191.2109375</v>
       </c>
       <c r="BF10">
         <v>0</v>
@@ -2435,7 +2435,7 @@
         <v>160</v>
       </c>
       <c r="BI10">
-        <v>36207.86328125</v>
+        <v>36191.546875</v>
       </c>
       <c r="BJ10">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>43956</v>
+        <v>43985</v>
       </c>
       <c r="C11">
         <v>-0</v>
@@ -2482,7 +2482,7 @@
         <v>-0</v>
       </c>
       <c r="N11">
-        <v>14.55053520202637</v>
+        <v>400</v>
       </c>
       <c r="O11">
         <v>-0</v>
@@ -2494,7 +2494,7 @@
         <v>-0</v>
       </c>
       <c r="R11">
-        <v>13.02888107299805</v>
+        <v>400</v>
       </c>
       <c r="S11">
         <v>-0</v>
@@ -2506,7 +2506,7 @@
         <v>-0</v>
       </c>
       <c r="V11">
-        <v>14.92858791351319</v>
+        <v>400</v>
       </c>
       <c r="W11">
         <v>-0</v>
@@ -2518,7 +2518,7 @@
         <v>-0</v>
       </c>
       <c r="Z11">
-        <v>15.15405941009521</v>
+        <v>400</v>
       </c>
       <c r="AA11">
         <v>-0</v>
@@ -2530,7 +2530,7 @@
         <v>-0</v>
       </c>
       <c r="AD11">
-        <v>14.2161169052124</v>
+        <v>400</v>
       </c>
       <c r="AE11">
         <v>-0</v>
@@ -2542,28 +2542,28 @@
         <v>-0</v>
       </c>
       <c r="AH11">
-        <v>14.0756664276123</v>
+        <v>400</v>
       </c>
       <c r="AI11">
-        <v>199.9983520507812</v>
+        <v>200</v>
       </c>
       <c r="AJ11">
         <v>200</v>
       </c>
       <c r="AK11">
-        <v>45223.15234375</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
-        <v>72.98619842529297</v>
+        <v>70</v>
       </c>
       <c r="AN11">
-        <v>72.98619842529297</v>
+        <v>70</v>
       </c>
       <c r="AO11">
-        <v>16508.744140625</v>
+        <v>15833.80078125</v>
       </c>
       <c r="AP11">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>200</v>
       </c>
       <c r="AS11">
-        <v>45944.33203125</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AT11">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>200</v>
       </c>
       <c r="AW11">
-        <v>46332.53515625</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AX11">
         <v>0</v>
@@ -2599,19 +2599,19 @@
         <v>200</v>
       </c>
       <c r="BA11">
-        <v>46110.01171875</v>
+        <v>45239.43359375</v>
       </c>
       <c r="BB11">
         <v>0</v>
       </c>
       <c r="BC11">
-        <v>159.9978179931641</v>
+        <v>159.9984436035156</v>
       </c>
       <c r="BD11">
         <v>160</v>
       </c>
       <c r="BE11">
-        <v>36190.27734375</v>
+        <v>36191.19140625</v>
       </c>
       <c r="BF11">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>160</v>
       </c>
       <c r="BI11">
-        <v>36524.078125</v>
+        <v>36191.546875</v>
       </c>
       <c r="BJ11">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>44023</v>
+        <v>43986</v>
       </c>
       <c r="C12">
         <v>-0</v>
@@ -2670,7 +2670,7 @@
         <v>-0</v>
       </c>
       <c r="N12">
-        <v>7.970141887664795</v>
+        <v>400</v>
       </c>
       <c r="O12">
         <v>-0</v>
@@ -2682,7 +2682,7 @@
         <v>-0</v>
       </c>
       <c r="R12">
-        <v>6.458503723144531</v>
+        <v>400</v>
       </c>
       <c r="S12">
         <v>-0</v>
@@ -2694,7 +2694,7 @@
         <v>-0</v>
       </c>
       <c r="V12">
-        <v>8.047475814819336</v>
+        <v>400</v>
       </c>
       <c r="W12">
         <v>-0</v>
@@ -2706,7 +2706,7 @@
         <v>-0</v>
       </c>
       <c r="Z12">
-        <v>8.532377243041992</v>
+        <v>400</v>
       </c>
       <c r="AA12">
         <v>-0</v>
@@ -2718,7 +2718,7 @@
         <v>-0</v>
       </c>
       <c r="AD12">
-        <v>7.793398380279541</v>
+        <v>400</v>
       </c>
       <c r="AE12">
         <v>-0</v>
@@ -2730,76 +2730,76 @@
         <v>-0</v>
       </c>
       <c r="AH12">
-        <v>7.765150547027588</v>
+        <v>400</v>
       </c>
       <c r="AI12">
-        <v>199.9981689453125</v>
+        <v>193.767318725586</v>
       </c>
       <c r="AJ12">
-        <v>200</v>
+        <v>193.767318725586</v>
       </c>
       <c r="AK12">
-        <v>45200.5625</v>
+        <v>43829.6171875</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>69.77860260009766</v>
+        <v>75</v>
       </c>
       <c r="AN12">
-        <v>69.77860260009766</v>
+        <v>75</v>
       </c>
       <c r="AO12">
-        <v>15783.46875</v>
+        <v>16964.787109375</v>
       </c>
       <c r="AP12">
         <v>0</v>
       </c>
       <c r="AQ12">
-        <v>190.9096069335937</v>
+        <v>200</v>
       </c>
       <c r="AR12">
-        <v>190.9096069335937</v>
+        <v>200</v>
       </c>
       <c r="AS12">
-        <v>46700.09375</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AT12">
         <v>0</v>
       </c>
       <c r="AU12">
-        <v>177.6793975830078</v>
+        <v>200</v>
       </c>
       <c r="AV12">
-        <v>177.6793975830078</v>
+        <v>200</v>
       </c>
       <c r="AW12">
-        <v>43455.79296875</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AX12">
         <v>0</v>
       </c>
       <c r="AY12">
-        <v>191.1590423583984</v>
+        <v>200</v>
       </c>
       <c r="AZ12">
-        <v>191.1590423583984</v>
+        <v>200</v>
       </c>
       <c r="BA12">
-        <v>48007.96484375</v>
+        <v>45239.43359375</v>
       </c>
       <c r="BB12">
         <v>0</v>
       </c>
       <c r="BC12">
-        <v>159.9975891113281</v>
+        <v>159.9984130859375</v>
       </c>
       <c r="BD12">
         <v>160</v>
       </c>
       <c r="BE12">
-        <v>36176.95703125</v>
+        <v>36191.18359375</v>
       </c>
       <c r="BF12">
         <v>0</v>
@@ -2811,7 +2811,7 @@
         <v>160</v>
       </c>
       <c r="BI12">
-        <v>36749.33984375</v>
+        <v>36191.546875</v>
       </c>
       <c r="BJ12">
         <v>0</v>
@@ -2822,7 +2822,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>44026</v>
+        <v>43987</v>
       </c>
       <c r="C13">
         <v>-0</v>
@@ -2858,7 +2858,7 @@
         <v>-0</v>
       </c>
       <c r="N13">
-        <v>7.670139312744142</v>
+        <v>400</v>
       </c>
       <c r="O13">
         <v>-0</v>
@@ -2870,7 +2870,7 @@
         <v>-0</v>
       </c>
       <c r="R13">
-        <v>6.180427074432372</v>
+        <v>400</v>
       </c>
       <c r="S13">
         <v>-0</v>
@@ -2882,7 +2882,7 @@
         <v>-0</v>
       </c>
       <c r="V13">
-        <v>7.868994235992433</v>
+        <v>400</v>
       </c>
       <c r="W13">
         <v>-0</v>
@@ -2894,7 +2894,7 @@
         <v>-0</v>
       </c>
       <c r="Z13">
-        <v>8.22142505645752</v>
+        <v>371.9790649414063</v>
       </c>
       <c r="AA13">
         <v>-0</v>
@@ -2906,7 +2906,7 @@
         <v>-0</v>
       </c>
       <c r="AD13">
-        <v>7.516769409179687</v>
+        <v>400</v>
       </c>
       <c r="AE13">
         <v>-0</v>
@@ -2918,76 +2918,76 @@
         <v>-0</v>
       </c>
       <c r="AH13">
-        <v>7.493468284606934</v>
+        <v>378.7207336425781</v>
       </c>
       <c r="AI13">
-        <v>9.962282180786133</v>
+        <v>178.1401824951172</v>
       </c>
       <c r="AJ13">
-        <v>9.962867736816406</v>
+        <v>178.1401824951172</v>
       </c>
       <c r="AK13">
-        <v>2060.2802734375</v>
+        <v>40294.8046875</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13">
-        <v>69.63558959960939</v>
+        <v>80.15318298339844</v>
       </c>
       <c r="AN13">
-        <v>69.63558959960939</v>
+        <v>80.15318298339844</v>
       </c>
       <c r="AO13">
-        <v>15751.1318359375</v>
+        <v>18130.421875</v>
       </c>
       <c r="AP13">
         <v>0</v>
       </c>
       <c r="AQ13">
-        <v>187.4152984619141</v>
+        <v>200</v>
       </c>
       <c r="AR13">
-        <v>187.4152984619141</v>
+        <v>200</v>
       </c>
       <c r="AS13">
-        <v>45893.9375</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AT13">
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>176.0174407958984</v>
+        <v>200</v>
       </c>
       <c r="AV13">
-        <v>176.0174407958984</v>
+        <v>200</v>
       </c>
       <c r="AW13">
-        <v>43057.08984375</v>
+        <v>45239.43359375</v>
       </c>
       <c r="AX13">
         <v>0</v>
       </c>
       <c r="AY13">
-        <v>189.8432464599609</v>
+        <v>200</v>
       </c>
       <c r="AZ13">
-        <v>189.8432464599609</v>
+        <v>200</v>
       </c>
       <c r="BA13">
-        <v>47634.578125</v>
+        <v>45239.43359375</v>
       </c>
       <c r="BB13">
         <v>0</v>
       </c>
       <c r="BC13">
-        <v>159.9975891113281</v>
+        <v>159.9983673095703</v>
       </c>
       <c r="BD13">
         <v>160</v>
       </c>
       <c r="BE13">
-        <v>36176.1328125</v>
+        <v>36191.17578125</v>
       </c>
       <c r="BF13">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>160</v>
       </c>
       <c r="BI13">
-        <v>36757.76171875</v>
+        <v>36191.546875</v>
       </c>
       <c r="BJ13">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>44027</v>
+        <v>43990</v>
       </c>
       <c r="C14">
         <v>-0</v>
@@ -3046,7 +3046,7 @@
         <v>-0</v>
       </c>
       <c r="N14">
-        <v>7.572783470153809</v>
+        <v>237.8886260986328</v>
       </c>
       <c r="O14">
         <v>-0</v>
@@ -3058,7 +3058,7 @@
         <v>-0</v>
       </c>
       <c r="R14">
-        <v>6.103079319000244</v>
+        <v>225.0762634277344</v>
       </c>
       <c r="S14">
         <v>-0</v>
@@ -3070,7 +3070,7 @@
         <v>-0</v>
       </c>
       <c r="V14">
-        <v>7.814231395721436</v>
+        <v>275.2627868652344</v>
       </c>
       <c r="W14">
         <v>-0</v>
@@ -3082,7 +3082,7 @@
         <v>-0</v>
       </c>
       <c r="Z14">
-        <v>8.120759010314941</v>
+        <v>218.3967895507812</v>
       </c>
       <c r="AA14">
         <v>-0</v>
@@ -3094,7 +3094,7 @@
         <v>-0</v>
       </c>
       <c r="AD14">
-        <v>7.426357269287108</v>
+        <v>230.6557922363281</v>
       </c>
       <c r="AE14">
         <v>-0</v>
@@ -3106,76 +3106,76 @@
         <v>-0</v>
       </c>
       <c r="AH14">
-        <v>7.404421806335449</v>
+        <v>215.9645690917969</v>
       </c>
       <c r="AI14">
-        <v>454.1157836914063</v>
+        <v>199.9989471435547</v>
       </c>
       <c r="AJ14">
-        <v>454.1193237304688</v>
+        <v>200</v>
       </c>
       <c r="AK14">
-        <v>102223.265625</v>
+        <v>45239.19140625</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
-        <v>69.58781433105469</v>
+        <v>79.65243530273438</v>
       </c>
       <c r="AN14">
-        <v>69.58781433105469</v>
+        <v>79.65243530273438</v>
       </c>
       <c r="AO14">
-        <v>15740.330078125</v>
+        <v>18017.154296875</v>
       </c>
       <c r="AP14">
         <v>0</v>
       </c>
       <c r="AQ14">
-        <v>186.1683349609375</v>
+        <v>200</v>
       </c>
       <c r="AR14">
-        <v>186.1683349609375</v>
+        <v>200</v>
       </c>
       <c r="AS14">
-        <v>45602.203125</v>
+        <v>45229.83203125</v>
       </c>
       <c r="AT14">
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>174.2077178955078</v>
+        <v>200</v>
       </c>
       <c r="AV14">
-        <v>174.2077178955078</v>
+        <v>200</v>
       </c>
       <c r="AW14">
-        <v>42629.6484375</v>
+        <v>45222.421875</v>
       </c>
       <c r="AX14">
         <v>0</v>
       </c>
       <c r="AY14">
-        <v>188.1417846679688</v>
+        <v>200</v>
       </c>
       <c r="AZ14">
-        <v>188.1417846679688</v>
+        <v>200</v>
       </c>
       <c r="BA14">
-        <v>47293.73828125</v>
+        <v>45227.875</v>
       </c>
       <c r="BB14">
         <v>0</v>
       </c>
       <c r="BC14">
-        <v>159.9975891113281</v>
+        <v>159.998291015625</v>
       </c>
       <c r="BD14">
         <v>160</v>
       </c>
       <c r="BE14">
-        <v>36175.8515625</v>
+        <v>36191.16015625</v>
       </c>
       <c r="BF14">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>160</v>
       </c>
       <c r="BI14">
-        <v>36760.56640625</v>
+        <v>36189.59765625</v>
       </c>
       <c r="BJ14">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>44030</v>
+        <v>43999</v>
       </c>
       <c r="C15">
         <v>-0</v>
@@ -3234,7 +3234,7 @@
         <v>-0</v>
       </c>
       <c r="N15">
-        <v>7.301597118377685</v>
+        <v>104.2855834960938</v>
       </c>
       <c r="O15">
         <v>-0</v>
@@ -3246,7 +3246,7 @@
         <v>-0</v>
       </c>
       <c r="R15">
-        <v>5.885782718658447</v>
+        <v>94.55517578125</v>
       </c>
       <c r="S15">
         <v>-0</v>
@@ -3258,7 +3258,7 @@
         <v>-0</v>
       </c>
       <c r="V15">
-        <v>7.65918493270874</v>
+        <v>113.2138366699219</v>
       </c>
       <c r="W15">
         <v>-0</v>
@@ -3270,7 +3270,7 @@
         <v>-0</v>
       </c>
       <c r="Z15">
-        <v>7.83978796005249</v>
+        <v>99.60353851318359</v>
       </c>
       <c r="AA15">
         <v>-0</v>
@@ -3282,7 +3282,7 @@
         <v>-0</v>
       </c>
       <c r="AD15">
-        <v>7.172559261322021</v>
+        <v>100.7241973876953</v>
       </c>
       <c r="AE15">
         <v>-0</v>
@@ -3294,76 +3294,76 @@
         <v>-0</v>
       </c>
       <c r="AH15">
-        <v>7.152839183807372</v>
+        <v>96.69312286376952</v>
       </c>
       <c r="AI15">
-        <v>392.1679992675781</v>
+        <v>199.9987945556641</v>
       </c>
       <c r="AJ15">
-        <v>392.1715393066406</v>
+        <v>200</v>
       </c>
       <c r="AK15">
-        <v>90715.1875</v>
+        <v>45239.16015625</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15">
-        <v>10</v>
+        <v>78.82263946533203</v>
       </c>
       <c r="AN15">
-        <v>10</v>
+        <v>78.82263946533203</v>
       </c>
       <c r="AO15">
-        <v>2261.937744140625</v>
+        <v>17829.45703125</v>
       </c>
       <c r="AP15">
         <v>0</v>
       </c>
       <c r="AQ15">
-        <v>181.8670043945312</v>
+        <v>200</v>
       </c>
       <c r="AR15">
-        <v>181.8670043945312</v>
+        <v>200</v>
       </c>
       <c r="AS15">
-        <v>44637.59375</v>
+        <v>45199.13671875</v>
       </c>
       <c r="AT15">
         <v>0</v>
       </c>
       <c r="AU15">
-        <v>167.3157501220703</v>
+        <v>200</v>
       </c>
       <c r="AV15">
-        <v>167.3157501220703</v>
+        <v>200</v>
       </c>
       <c r="AW15">
-        <v>41003.46484375</v>
+        <v>45183.12890625</v>
       </c>
       <c r="AX15">
         <v>0</v>
       </c>
       <c r="AY15">
-        <v>181.3137512207031</v>
+        <v>200</v>
       </c>
       <c r="AZ15">
-        <v>181.3137512207031</v>
+        <v>200</v>
       </c>
       <c r="BA15">
-        <v>45894.44921875</v>
+        <v>45194.6953125</v>
       </c>
       <c r="BB15">
         <v>0</v>
       </c>
       <c r="BC15">
-        <v>159.9975738525391</v>
+        <v>159.9981994628906</v>
       </c>
       <c r="BD15">
         <v>160</v>
       </c>
       <c r="BE15">
-        <v>36174.9921875</v>
+        <v>36191.13671875</v>
       </c>
       <c r="BF15">
         <v>0</v>
@@ -3375,7 +3375,7 @@
         <v>160</v>
       </c>
       <c r="BI15">
-        <v>36768.66796875</v>
+        <v>36166.03125</v>
       </c>
       <c r="BJ15">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>44031</v>
+        <v>44023</v>
       </c>
       <c r="C16">
         <v>-0</v>
@@ -3422,7 +3422,7 @@
         <v>-0</v>
       </c>
       <c r="N16">
-        <v>7.212934970855713</v>
+        <v>40.76543807983398</v>
       </c>
       <c r="O16">
         <v>-0</v>
@@ -3434,7 +3434,7 @@
         <v>-0</v>
       </c>
       <c r="R16">
-        <v>5.814770221710205</v>
+        <v>35.44300842285156</v>
       </c>
       <c r="S16">
         <v>-0</v>
@@ -3446,7 +3446,7 @@
         <v>-0</v>
       </c>
       <c r="V16">
-        <v>7.608218193054199</v>
+        <v>43.13711166381836</v>
       </c>
       <c r="W16">
         <v>-0</v>
@@ -3458,7 +3458,7 @@
         <v>-0</v>
       </c>
       <c r="Z16">
-        <v>7.747609615325928</v>
+        <v>42.31409072875977</v>
       </c>
       <c r="AA16">
         <v>-0</v>
@@ -3470,7 +3470,7 @@
         <v>-0</v>
       </c>
       <c r="AD16">
-        <v>7.089658260345459</v>
+        <v>39.34334182739258</v>
       </c>
       <c r="AE16">
         <v>-0</v>
@@ -3482,76 +3482,76 @@
         <v>-0</v>
       </c>
       <c r="AH16">
-        <v>7.070472717285156</v>
+        <v>39.60958099365234</v>
       </c>
       <c r="AI16">
-        <v>382.3672180175781</v>
+        <v>199.9986267089844</v>
       </c>
       <c r="AJ16">
-        <v>382.3707580566406</v>
+        <v>200</v>
       </c>
       <c r="AK16">
-        <v>88913.015625</v>
+        <v>45239.12109375</v>
       </c>
       <c r="AL16">
         <v>0</v>
       </c>
       <c r="AM16">
-        <v>53.73115158081055</v>
+        <v>77.30947113037109</v>
       </c>
       <c r="AN16">
-        <v>53.73115158081055</v>
+        <v>77.30947113037109</v>
       </c>
       <c r="AO16">
-        <v>12153.6552734375</v>
+        <v>17487.181640625</v>
       </c>
       <c r="AP16">
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>180.438232421875</v>
+        <v>200</v>
       </c>
       <c r="AR16">
-        <v>180.438232421875</v>
+        <v>200</v>
       </c>
       <c r="AS16">
-        <v>44316.12890625</v>
+        <v>45345.73046875</v>
       </c>
       <c r="AT16">
         <v>0</v>
       </c>
       <c r="AU16">
-        <v>165.1332550048828</v>
+        <v>200</v>
       </c>
       <c r="AV16">
-        <v>165.1332550048828</v>
+        <v>200</v>
       </c>
       <c r="AW16">
-        <v>40486.5546875</v>
+        <v>45479.0390625</v>
       </c>
       <c r="AX16">
         <v>0</v>
       </c>
       <c r="AY16">
-        <v>179.4383697509766</v>
+        <v>200</v>
       </c>
       <c r="AZ16">
-        <v>179.4383697509766</v>
+        <v>200</v>
       </c>
       <c r="BA16">
-        <v>45455.5703125</v>
+        <v>45386.76171875</v>
       </c>
       <c r="BB16">
         <v>0</v>
       </c>
       <c r="BC16">
-        <v>159.9975738525391</v>
+        <v>159.9980926513672</v>
       </c>
       <c r="BD16">
         <v>160</v>
       </c>
       <c r="BE16">
-        <v>36174.69921875</v>
+        <v>36191.1171875</v>
       </c>
       <c r="BF16">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>160</v>
       </c>
       <c r="BI16">
-        <v>36771.3828125</v>
+        <v>36186.2265625</v>
       </c>
       <c r="BJ16">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>44034</v>
+        <v>44026</v>
       </c>
       <c r="C17">
         <v>-0</v>
@@ -3610,7 +3610,7 @@
         <v>-0</v>
       </c>
       <c r="N17">
-        <v>6.962615013122559</v>
+        <v>37.11850738525391</v>
       </c>
       <c r="O17">
         <v>-0</v>
@@ -3622,7 +3622,7 @@
         <v>-0</v>
       </c>
       <c r="R17">
-        <v>5.615209579467773</v>
+        <v>32.66370010375977</v>
       </c>
       <c r="S17">
         <v>-0</v>
@@ -3634,7 +3634,7 @@
         <v>-0</v>
       </c>
       <c r="V17">
-        <v>7.465225696563722</v>
+        <v>39.09029006958008</v>
       </c>
       <c r="W17">
         <v>-0</v>
@@ -3646,7 +3646,7 @@
         <v>-0</v>
       </c>
       <c r="Z17">
-        <v>7.482515335083008</v>
+        <v>36.25204467773438</v>
       </c>
       <c r="AA17">
         <v>-0</v>
@@ -3658,7 +3658,7 @@
         <v>-0</v>
       </c>
       <c r="AD17">
-        <v>6.856539249420166</v>
+        <v>36.05156707763672</v>
       </c>
       <c r="AE17">
         <v>-0</v>
@@ -3670,76 +3670,76 @@
         <v>-0</v>
       </c>
       <c r="AH17">
-        <v>6.835999965667725</v>
+        <v>34.57680892944336</v>
       </c>
       <c r="AI17">
-        <v>368.9879150390625</v>
+        <v>9.999823570251463</v>
       </c>
       <c r="AJ17">
-        <v>368.991455078125</v>
+        <v>10</v>
       </c>
       <c r="AK17">
-        <v>86314.875</v>
+        <v>2261.931640625</v>
       </c>
       <c r="AL17">
         <v>0</v>
       </c>
       <c r="AM17">
-        <v>53.27027893066406</v>
+        <v>77.12702178955078</v>
       </c>
       <c r="AN17">
-        <v>53.27027893066406</v>
+        <v>77.12702178955078</v>
       </c>
       <c r="AO17">
-        <v>12049.4150390625</v>
+        <v>17445.9140625</v>
       </c>
       <c r="AP17">
         <v>0</v>
       </c>
       <c r="AQ17">
-        <v>179.5560150146484</v>
+        <v>200</v>
       </c>
       <c r="AR17">
-        <v>179.5560150146484</v>
+        <v>200</v>
       </c>
       <c r="AS17">
-        <v>44019.59765625</v>
+        <v>45389.0078125</v>
       </c>
       <c r="AT17">
         <v>0</v>
       </c>
       <c r="AU17">
-        <v>161.0682830810547</v>
+        <v>200</v>
       </c>
       <c r="AV17">
-        <v>161.0682830810547</v>
+        <v>200</v>
       </c>
       <c r="AW17">
-        <v>39549.19921875</v>
+        <v>45534.6484375</v>
       </c>
       <c r="AX17">
         <v>0</v>
       </c>
       <c r="AY17">
-        <v>9.999939918518066</v>
+        <v>200</v>
       </c>
       <c r="AZ17">
-        <v>9.999939918518066</v>
+        <v>200</v>
       </c>
       <c r="BA17">
-        <v>2275.642822265625</v>
+        <v>45432.98828125</v>
       </c>
       <c r="BB17">
         <v>0</v>
       </c>
       <c r="BC17">
-        <v>159.99755859375</v>
+        <v>159.9980926513672</v>
       </c>
       <c r="BD17">
         <v>160</v>
       </c>
       <c r="BE17">
-        <v>36173.80078125</v>
+        <v>36191.11328125</v>
       </c>
       <c r="BF17">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>160</v>
       </c>
       <c r="BI17">
-        <v>36779.35546875</v>
+        <v>36213.02734375</v>
       </c>
       <c r="BJ17">
         <v>0</v>
@@ -3762,7 +3762,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>44043</v>
+        <v>44027</v>
       </c>
       <c r="C18">
         <v>-0</v>
@@ -3798,7 +3798,7 @@
         <v>-0</v>
       </c>
       <c r="N18">
-        <v>6.459781646728517</v>
+        <v>36.16523361206055</v>
       </c>
       <c r="O18">
         <v>-0</v>
@@ -3810,7 +3810,7 @@
         <v>-0</v>
       </c>
       <c r="R18">
-        <v>5.116235256195068</v>
+        <v>31.79107666015625</v>
       </c>
       <c r="S18">
         <v>-0</v>
@@ -3822,7 +3822,7 @@
         <v>-0</v>
       </c>
       <c r="V18">
-        <v>7.183340072631836</v>
+        <v>37.9906120300293</v>
       </c>
       <c r="W18">
         <v>-0</v>
@@ -3834,7 +3834,7 @@
         <v>-0</v>
       </c>
       <c r="Z18">
-        <v>6.789381504058838</v>
+        <v>34.84614944458008</v>
       </c>
       <c r="AA18">
         <v>-0</v>
@@ -3846,7 +3846,7 @@
         <v>-0</v>
       </c>
       <c r="AD18">
-        <v>6.307227611541747</v>
+        <v>35.12714385986328</v>
       </c>
       <c r="AE18">
         <v>-0</v>
@@ -3858,88 +3858,88 @@
         <v>-0</v>
       </c>
       <c r="AH18">
-        <v>6.236779689788817</v>
+        <v>33.48815536499023</v>
       </c>
       <c r="AI18">
-        <v>352.2478332519531</v>
+        <v>718.2646484375</v>
       </c>
       <c r="AJ18">
-        <v>352.2513122558594</v>
+        <v>718.2683715820312</v>
       </c>
       <c r="AK18">
-        <v>82367.796875</v>
+        <v>162220.46875</v>
       </c>
       <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18">
-        <v>52.87221908569336</v>
+        <v>77.06680297851562</v>
       </c>
       <c r="AN18">
-        <v>52.87221908569336</v>
+        <v>77.06680297851562</v>
       </c>
       <c r="AO18">
-        <v>11959.39453125</v>
+        <v>17432.291015625</v>
       </c>
       <c r="AP18">
         <v>0</v>
       </c>
       <c r="AQ18">
-        <v>177.0400390625</v>
+        <v>200</v>
       </c>
       <c r="AR18">
-        <v>177.0400390625</v>
+        <v>200</v>
       </c>
       <c r="AS18">
-        <v>43186.39453125</v>
+        <v>45403.24609375</v>
       </c>
       <c r="AT18">
         <v>0</v>
       </c>
       <c r="AU18">
-        <v>154.4480438232422</v>
+        <v>200</v>
       </c>
       <c r="AV18">
-        <v>154.4480438232422</v>
+        <v>200</v>
       </c>
       <c r="AW18">
-        <v>37977.46484375</v>
+        <v>45554.2578125</v>
       </c>
       <c r="AX18">
         <v>0</v>
       </c>
       <c r="AY18">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="AZ18">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="BA18">
-        <v>2279.992431640625</v>
+        <v>45449.38671875</v>
       </c>
       <c r="BB18">
         <v>0</v>
       </c>
       <c r="BC18">
-        <v>159.9975280761719</v>
+        <v>159.9980773925781</v>
       </c>
       <c r="BD18">
         <v>160</v>
       </c>
       <c r="BE18">
-        <v>36171.04296875</v>
+        <v>36191.11328125</v>
       </c>
       <c r="BF18">
         <v>0</v>
       </c>
       <c r="BG18">
-        <v>160.000244140625</v>
+        <v>160</v>
       </c>
       <c r="BH18">
-        <v>160.000244140625</v>
+        <v>160</v>
       </c>
       <c r="BI18">
-        <v>36801.12890625</v>
+        <v>36221.60546875</v>
       </c>
       <c r="BJ18">
         <v>0</v>
@@ -3950,7 +3950,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>44064</v>
+        <v>44030</v>
       </c>
       <c r="C19">
         <v>-0</v>
@@ -3986,7 +3986,7 @@
         <v>-0</v>
       </c>
       <c r="N19">
-        <v>5.803953647613525</v>
+        <v>33.76984024047852</v>
       </c>
       <c r="O19">
         <v>-0</v>
@@ -3998,7 +3998,7 @@
         <v>-0</v>
       </c>
       <c r="R19">
-        <v>4.653402805328369</v>
+        <v>29.54636383056641</v>
       </c>
       <c r="S19">
         <v>-0</v>
@@ -4010,7 +4010,7 @@
         <v>-0</v>
       </c>
       <c r="V19">
-        <v>6.606456279754639</v>
+        <v>35.2100830078125</v>
       </c>
       <c r="W19">
         <v>-0</v>
@@ -4022,7 +4022,7 @@
         <v>-0</v>
       </c>
       <c r="Z19">
-        <v>5.603115558624268</v>
+        <v>32.65653610229492</v>
       </c>
       <c r="AA19">
         <v>-0</v>
@@ -4034,7 +4034,7 @@
         <v>-0</v>
       </c>
       <c r="AD19">
-        <v>5.733513832092285</v>
+        <v>32.73169708251953</v>
       </c>
       <c r="AE19">
         <v>-0</v>
@@ -4046,76 +4046,76 @@
         <v>-0</v>
       </c>
       <c r="AH19">
-        <v>5.306985855102539</v>
+        <v>31.34334564208984</v>
       </c>
       <c r="AI19">
-        <v>328.7154846191406</v>
+        <v>644.8222045898438</v>
       </c>
       <c r="AJ19">
-        <v>328.7189331054688</v>
+        <v>644.825927734375</v>
       </c>
       <c r="AK19">
-        <v>77243.640625</v>
+        <v>146647.765625</v>
       </c>
       <c r="AL19">
         <v>0</v>
       </c>
       <c r="AM19">
-        <v>52.11474227905274</v>
+        <v>10</v>
       </c>
       <c r="AN19">
-        <v>52.11474227905274</v>
+        <v>10</v>
       </c>
       <c r="AO19">
-        <v>11788.091796875</v>
+        <v>2261.9716796875</v>
       </c>
       <c r="AP19">
         <v>0</v>
       </c>
       <c r="AQ19">
-        <v>166.8133239746094</v>
+        <v>200</v>
       </c>
       <c r="AR19">
-        <v>166.8133239746094</v>
+        <v>200</v>
       </c>
       <c r="AS19">
-        <v>40357.62890625</v>
+        <v>45446.85546875</v>
       </c>
       <c r="AT19">
         <v>0</v>
       </c>
       <c r="AU19">
-        <v>142.4959564208984</v>
+        <v>200</v>
       </c>
       <c r="AV19">
-        <v>142.4959564208984</v>
+        <v>200</v>
       </c>
       <c r="AW19">
-        <v>34951.078125</v>
+        <v>45616.45703125</v>
       </c>
       <c r="AX19">
         <v>0</v>
       </c>
       <c r="AY19">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="AZ19">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="BA19">
-        <v>2276.709228515625</v>
+        <v>45502.37890625</v>
       </c>
       <c r="BB19">
         <v>0</v>
       </c>
       <c r="BC19">
-        <v>159.9974670410156</v>
+        <v>159.9980773925781</v>
       </c>
       <c r="BD19">
         <v>160</v>
       </c>
       <c r="BE19">
-        <v>36164.30078125</v>
+        <v>36191.109375</v>
       </c>
       <c r="BF19">
         <v>0</v>
@@ -4127,7 +4127,7 @@
         <v>160</v>
       </c>
       <c r="BI19">
-        <v>36840.56640625</v>
+        <v>36245.75</v>
       </c>
       <c r="BJ19">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>44071</v>
+        <v>44031</v>
       </c>
       <c r="C20">
         <v>-0</v>
@@ -4174,7 +4174,7 @@
         <v>-0</v>
       </c>
       <c r="N20">
-        <v>5.656337738037108</v>
+        <v>32.98292541503906</v>
       </c>
       <c r="O20">
         <v>-0</v>
@@ -4186,7 +4186,7 @@
         <v>-0</v>
       </c>
       <c r="R20">
-        <v>4.591567039489746</v>
+        <v>28.86123085021973</v>
       </c>
       <c r="S20">
         <v>-0</v>
@@ -4198,7 +4198,7 @@
         <v>-0</v>
       </c>
       <c r="V20">
-        <v>6.419703483581543</v>
+        <v>34.29709625244141</v>
       </c>
       <c r="W20">
         <v>-0</v>
@@ -4210,7 +4210,7 @@
         <v>-0</v>
       </c>
       <c r="Z20">
-        <v>5.335169315338135</v>
+        <v>32.06546783447266</v>
       </c>
       <c r="AA20">
         <v>-0</v>
@@ -4222,7 +4222,7 @@
         <v>-0</v>
       </c>
       <c r="AD20">
-        <v>5.588088035583496</v>
+        <v>31.96384620666504</v>
       </c>
       <c r="AE20">
         <v>-0</v>
@@ -4234,76 +4234,76 @@
         <v>-0</v>
       </c>
       <c r="AH20">
-        <v>5.139745235443115</v>
+        <v>30.66729927062989</v>
       </c>
       <c r="AI20">
-        <v>318.4929809570312</v>
+        <v>634.4171752929688</v>
       </c>
       <c r="AJ20">
-        <v>318.4964294433594</v>
+        <v>634.4208984375</v>
       </c>
       <c r="AK20">
-        <v>74971.5703125</v>
+        <v>144780.8125</v>
       </c>
       <c r="AL20">
         <v>0</v>
       </c>
       <c r="AM20">
-        <v>51.86503219604492</v>
+        <v>61.42810440063477</v>
       </c>
       <c r="AN20">
-        <v>51.86503219604492</v>
+        <v>61.42810440063477</v>
       </c>
       <c r="AO20">
-        <v>11731.619140625</v>
+        <v>13894.86328125</v>
       </c>
       <c r="AP20">
         <v>0</v>
       </c>
       <c r="AQ20">
-        <v>157.2047271728516</v>
+        <v>200</v>
       </c>
       <c r="AR20">
-        <v>157.2047271728516</v>
+        <v>200</v>
       </c>
       <c r="AS20">
-        <v>38145.89453125</v>
+        <v>45461.54296875</v>
       </c>
       <c r="AT20">
         <v>0</v>
       </c>
       <c r="AU20">
-        <v>136.8334655761719</v>
+        <v>200</v>
       </c>
       <c r="AV20">
-        <v>136.8334655761719</v>
+        <v>200</v>
       </c>
       <c r="AW20">
-        <v>33534.21875</v>
+        <v>45637.40234375</v>
       </c>
       <c r="AX20">
         <v>0</v>
       </c>
       <c r="AY20">
-        <v>156.734619140625</v>
+        <v>200</v>
       </c>
       <c r="AZ20">
-        <v>156.734619140625</v>
+        <v>200</v>
       </c>
       <c r="BA20">
-        <v>36118.234375</v>
+        <v>45520.40625</v>
       </c>
       <c r="BB20">
         <v>0</v>
       </c>
       <c r="BC20">
-        <v>159.9974365234375</v>
+        <v>159.9980773925781</v>
       </c>
       <c r="BD20">
         <v>160</v>
       </c>
       <c r="BE20">
-        <v>36161.9765625</v>
+        <v>36191.109375</v>
       </c>
       <c r="BF20">
         <v>0</v>
@@ -4315,7 +4315,7 @@
         <v>160</v>
       </c>
       <c r="BI20">
-        <v>36868.3046875</v>
+        <v>36253.484375</v>
       </c>
       <c r="BJ20">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>44074</v>
+        <v>44034</v>
       </c>
       <c r="C21">
         <v>-0</v>
@@ -4362,7 +4362,7 @@
         <v>-0</v>
       </c>
       <c r="N21">
-        <v>5.593898296356201</v>
+        <v>30.8494873046875</v>
       </c>
       <c r="O21">
         <v>-0</v>
@@ -4374,7 +4374,7 @@
         <v>-0</v>
       </c>
       <c r="R21">
-        <v>4.565160274505615</v>
+        <v>27.00243377685547</v>
       </c>
       <c r="S21">
         <v>-0</v>
@@ -4386,7 +4386,7 @@
         <v>-0</v>
       </c>
       <c r="V21">
-        <v>6.340922355651856</v>
+        <v>31.7172679901123</v>
       </c>
       <c r="W21">
         <v>-0</v>
@@ -4398,7 +4398,7 @@
         <v>-0</v>
       </c>
       <c r="Z21">
-        <v>5.242695808410645</v>
+        <v>30.26349258422852</v>
       </c>
       <c r="AA21">
         <v>-0</v>
@@ -4410,7 +4410,7 @@
         <v>-0</v>
       </c>
       <c r="AD21">
-        <v>5.537933349609375</v>
+        <v>29.8649787902832</v>
       </c>
       <c r="AE21">
         <v>-0</v>
@@ -4422,76 +4422,76 @@
         <v>-0</v>
       </c>
       <c r="AH21">
-        <v>5.070198535919189</v>
+        <v>28.74146842956543</v>
       </c>
       <c r="AI21">
-        <v>314.9212951660156</v>
+        <v>618.6362915039062</v>
       </c>
       <c r="AJ21">
-        <v>314.9247436523438</v>
+        <v>618.6400146484375</v>
       </c>
       <c r="AK21">
-        <v>74106.953125</v>
+        <v>141600.671875</v>
       </c>
       <c r="AL21">
         <v>0</v>
       </c>
       <c r="AM21">
-        <v>51.75780487060547</v>
+        <v>60.86380386352539</v>
       </c>
       <c r="AN21">
-        <v>51.75780487060547</v>
+        <v>60.86380386352539</v>
       </c>
       <c r="AO21">
-        <v>11707.369140625</v>
+        <v>13767.21875</v>
       </c>
       <c r="AP21">
         <v>0</v>
       </c>
       <c r="AQ21">
-        <v>154.0432586669922</v>
+        <v>200</v>
       </c>
       <c r="AR21">
-        <v>154.0432586669922</v>
+        <v>200</v>
       </c>
       <c r="AS21">
-        <v>37329.38671875</v>
+        <v>45500.13671875</v>
       </c>
       <c r="AT21">
         <v>0</v>
       </c>
       <c r="AU21">
-        <v>134.6457061767578</v>
+        <v>200</v>
       </c>
       <c r="AV21">
-        <v>134.6457061767578</v>
+        <v>200</v>
       </c>
       <c r="AW21">
-        <v>32959.59765625</v>
+        <v>45695.64453125</v>
       </c>
       <c r="AX21">
         <v>0</v>
       </c>
       <c r="AY21">
-        <v>149.7531127929688</v>
+        <v>9.99925422668457</v>
       </c>
       <c r="AZ21">
-        <v>149.7531127929688</v>
+        <v>9.99925422668457</v>
       </c>
       <c r="BA21">
-        <v>34870.30859375</v>
+        <v>2262.07421875</v>
       </c>
       <c r="BB21">
         <v>0</v>
       </c>
       <c r="BC21">
-        <v>9.999547004699707</v>
+        <v>159.9980621337891</v>
       </c>
       <c r="BD21">
-        <v>9.999994277954102</v>
+        <v>160</v>
       </c>
       <c r="BE21">
-        <v>2261.375</v>
+        <v>36191.10546875</v>
       </c>
       <c r="BF21">
         <v>0</v>
@@ -4503,7 +4503,7 @@
         <v>160</v>
       </c>
       <c r="BI21">
-        <v>36930.94921875</v>
+        <v>36275.29296875</v>
       </c>
       <c r="BJ21">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>44078</v>
+        <v>44043</v>
       </c>
       <c r="C22">
         <v>-0</v>
@@ -4550,7 +4550,7 @@
         <v>-0</v>
       </c>
       <c r="N22">
-        <v>5.51251220703125</v>
+        <v>25.51862335205078</v>
       </c>
       <c r="O22">
         <v>-0</v>
@@ -4562,7 +4562,7 @@
         <v>-0</v>
       </c>
       <c r="R22">
-        <v>4.530258655548097</v>
+        <v>22.55971145629883</v>
       </c>
       <c r="S22">
         <v>-0</v>
@@ -4574,7 +4574,7 @@
         <v>-0</v>
       </c>
       <c r="V22">
-        <v>6.265266418457031</v>
+        <v>25.86715316772461</v>
       </c>
       <c r="W22">
         <v>-0</v>
@@ -4586,7 +4586,7 @@
         <v>-0</v>
       </c>
       <c r="Z22">
-        <v>5.124410152435303</v>
+        <v>25.64652061462402</v>
       </c>
       <c r="AA22">
         <v>-0</v>
@@ -4598,7 +4598,7 @@
         <v>-0</v>
       </c>
       <c r="AD22">
-        <v>5.472304344177246</v>
+        <v>24.83899307250977</v>
       </c>
       <c r="AE22">
         <v>-0</v>
@@ -4610,88 +4610,88 @@
         <v>-0</v>
       </c>
       <c r="AH22">
-        <v>4.980948448181152</v>
+        <v>24.17489624023437</v>
       </c>
       <c r="AI22">
-        <v>310.9332885742188</v>
+        <v>596.7244873046875</v>
       </c>
       <c r="AJ22">
-        <v>310.9367370605469</v>
+        <v>596.7281494140625</v>
       </c>
       <c r="AK22">
-        <v>73093.265625</v>
+        <v>137191.71875</v>
       </c>
       <c r="AL22">
         <v>0</v>
       </c>
       <c r="AM22">
-        <v>51.61502838134766</v>
+        <v>60.36919403076172</v>
       </c>
       <c r="AN22">
-        <v>51.61502838134766</v>
+        <v>60.36919403076172</v>
       </c>
       <c r="AO22">
-        <v>11675.0791015625</v>
+        <v>13655.33984375</v>
       </c>
       <c r="AP22">
         <v>0</v>
       </c>
       <c r="AQ22">
-        <v>150.8433074951172</v>
+        <v>200</v>
       </c>
       <c r="AR22">
-        <v>150.8433074951172</v>
+        <v>200</v>
       </c>
       <c r="AS22">
-        <v>36434.46484375</v>
+        <v>45598.01953125</v>
       </c>
       <c r="AT22">
         <v>0</v>
       </c>
       <c r="AU22">
-        <v>132.0309906005859</v>
+        <v>200</v>
       </c>
       <c r="AV22">
-        <v>132.0309906005859</v>
+        <v>200</v>
       </c>
       <c r="AW22">
-        <v>32263.189453125</v>
+        <v>45841.83984375</v>
       </c>
       <c r="AX22">
         <v>0</v>
       </c>
       <c r="AY22">
-        <v>145.0320281982422</v>
+        <v>10</v>
       </c>
       <c r="AZ22">
-        <v>145.0320281982422</v>
+        <v>10</v>
       </c>
       <c r="BA22">
-        <v>33911.546875</v>
+        <v>2261.9716796875</v>
       </c>
       <c r="BB22">
         <v>0</v>
       </c>
       <c r="BC22">
-        <v>9.99947452545166</v>
+        <v>159.9980316162109</v>
       </c>
       <c r="BD22">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="BE22">
-        <v>2261.85205078125</v>
+        <v>36191.1015625</v>
       </c>
       <c r="BF22">
         <v>0</v>
       </c>
       <c r="BG22">
-        <v>160.0059661865234</v>
+        <v>160</v>
       </c>
       <c r="BH22">
-        <v>160.0059661865234</v>
+        <v>160</v>
       </c>
       <c r="BI22">
-        <v>37041.6953125</v>
+        <v>36330.56640625</v>
       </c>
       <c r="BJ22">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>44085</v>
+        <v>44064</v>
       </c>
       <c r="C23">
         <v>-0</v>
@@ -4738,7 +4738,7 @@
         <v>-0</v>
       </c>
       <c r="N23">
-        <v>5.375360012054443</v>
+        <v>17.78645133972168</v>
       </c>
       <c r="O23">
         <v>-0</v>
@@ -4750,7 +4750,7 @@
         <v>-0</v>
       </c>
       <c r="R23">
-        <v>4.470097541809082</v>
+        <v>16.124267578125</v>
       </c>
       <c r="S23">
         <v>-0</v>
@@ -4762,7 +4762,7 @@
         <v>-0</v>
       </c>
       <c r="V23">
-        <v>6.163703441619872</v>
+        <v>17.73073959350586</v>
       </c>
       <c r="W23">
         <v>-0</v>
@@ -4774,7 +4774,7 @@
         <v>-0</v>
       </c>
       <c r="Z23">
-        <v>4.931271553039551</v>
+        <v>18.17173194885254</v>
       </c>
       <c r="AA23">
         <v>-0</v>
@@ -4786,7 +4786,7 @@
         <v>-0</v>
       </c>
       <c r="AD23">
-        <v>5.361979484558105</v>
+        <v>17.73405838012695</v>
       </c>
       <c r="AE23">
         <v>-0</v>
@@ -4798,76 +4798,76 @@
         <v>-0</v>
       </c>
       <c r="AH23">
-        <v>4.835750579833983</v>
+        <v>17.44783782958985</v>
       </c>
       <c r="AI23">
-        <v>305.1867370605469</v>
+        <v>545.9598388671875</v>
       </c>
       <c r="AJ23">
-        <v>305.1901550292969</v>
+        <v>545.9634399414061</v>
       </c>
       <c r="AK23">
-        <v>71577.3125</v>
+        <v>125952.125</v>
       </c>
       <c r="AL23">
         <v>0</v>
       </c>
       <c r="AM23">
-        <v>51.36814117431641</v>
+        <v>59.48177719116211</v>
       </c>
       <c r="AN23">
-        <v>51.36814117431641</v>
+        <v>59.48177719116211</v>
       </c>
       <c r="AO23">
-        <v>11619.2421875</v>
+        <v>13454.609375</v>
       </c>
       <c r="AP23">
         <v>0</v>
       </c>
       <c r="AQ23">
-        <v>146.4058532714844</v>
+        <v>200</v>
       </c>
       <c r="AR23">
-        <v>146.4058532714844</v>
+        <v>200</v>
       </c>
       <c r="AS23">
-        <v>35176.15625</v>
+        <v>45763.6171875</v>
       </c>
       <c r="AT23">
         <v>0</v>
       </c>
       <c r="AU23">
-        <v>128.2285766601562</v>
+        <v>200</v>
       </c>
       <c r="AV23">
-        <v>128.2285766601562</v>
+        <v>200</v>
       </c>
       <c r="AW23">
-        <v>31221.833984375</v>
+        <v>46149.38671875</v>
       </c>
       <c r="AX23">
         <v>0</v>
       </c>
       <c r="AY23">
-        <v>139.5843505859375</v>
+        <v>10</v>
       </c>
       <c r="AZ23">
-        <v>139.5843505859375</v>
+        <v>10</v>
       </c>
       <c r="BA23">
-        <v>32753.837890625</v>
+        <v>2261.9716796875</v>
       </c>
       <c r="BB23">
         <v>0</v>
       </c>
       <c r="BC23">
-        <v>353.0071716308594</v>
+        <v>159.9979705810547</v>
       </c>
       <c r="BD23">
-        <v>353.0116577148438</v>
+        <v>160</v>
       </c>
       <c r="BE23">
-        <v>79485.84375</v>
+        <v>36191.0859375</v>
       </c>
       <c r="BF23">
         <v>0</v>
@@ -4879,7 +4879,7 @@
         <v>160</v>
       </c>
       <c r="BI23">
-        <v>37217.25</v>
+        <v>36423.26953125</v>
       </c>
       <c r="BJ23">
         <v>0</v>
@@ -4890,7 +4890,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>44092</v>
+        <v>44071</v>
       </c>
       <c r="C24">
         <v>-0</v>
@@ -4926,7 +4926,7 @@
         <v>-0</v>
       </c>
       <c r="N24">
-        <v>5.239852428436278</v>
+        <v>15.71511459350586</v>
       </c>
       <c r="O24">
         <v>-0</v>
@@ -4938,7 +4938,7 @@
         <v>-0</v>
       </c>
       <c r="R24">
-        <v>4.410721778869629</v>
+        <v>14.33539199829102</v>
       </c>
       <c r="S24">
         <v>-0</v>
@@ -4950,7 +4950,7 @@
         <v>-0</v>
       </c>
       <c r="V24">
-        <v>6.088531494140625</v>
+        <v>15.8015251159668</v>
       </c>
       <c r="W24">
         <v>-0</v>
@@ -4962,7 +4962,7 @@
         <v>-0</v>
       </c>
       <c r="Z24">
-        <v>4.796312808990479</v>
+        <v>16.77619743347168</v>
       </c>
       <c r="AA24">
         <v>-0</v>
@@ -4974,7 +4974,7 @@
         <v>-0</v>
       </c>
       <c r="AD24">
-        <v>5.252824306488037</v>
+        <v>15.73141288757324</v>
       </c>
       <c r="AE24">
         <v>-0</v>
@@ -4986,76 +4986,76 @@
         <v>-0</v>
       </c>
       <c r="AH24">
-        <v>4.735579490661621</v>
+        <v>15.72022533416748</v>
       </c>
       <c r="AI24">
-        <v>300.9185791015625</v>
+        <v>511.6639404296875</v>
       </c>
       <c r="AJ24">
-        <v>300.9219970703125</v>
+        <v>511.6675415039063</v>
       </c>
       <c r="AK24">
-        <v>70398.453125</v>
+        <v>118247.375</v>
       </c>
       <c r="AL24">
         <v>0</v>
       </c>
       <c r="AM24">
-        <v>51.1189079284668</v>
+        <v>59.19351196289063</v>
       </c>
       <c r="AN24">
-        <v>51.1189079284668</v>
+        <v>59.19351196289063</v>
       </c>
       <c r="AO24">
-        <v>11562.8740234375</v>
+        <v>13389.404296875</v>
       </c>
       <c r="AP24">
         <v>0</v>
       </c>
       <c r="AQ24">
-        <v>10.00160694122314</v>
+        <v>200</v>
       </c>
       <c r="AR24">
-        <v>10.00160694122314</v>
+        <v>200</v>
       </c>
       <c r="AS24">
-        <v>2275.869873046875</v>
+        <v>45852.15234375</v>
       </c>
       <c r="AT24">
         <v>0</v>
       </c>
       <c r="AU24">
-        <v>127.4476547241211</v>
+        <v>200</v>
       </c>
       <c r="AV24">
-        <v>127.4476547241211</v>
+        <v>200</v>
       </c>
       <c r="AW24">
-        <v>30853.904296875</v>
+        <v>46291.07421875</v>
       </c>
       <c r="AX24">
         <v>0</v>
       </c>
       <c r="AY24">
-        <v>137.4834442138672</v>
+        <v>330.360595703125</v>
       </c>
       <c r="AZ24">
-        <v>137.4834442138672</v>
+        <v>330.360595703125</v>
       </c>
       <c r="BA24">
-        <v>32311.509765625</v>
+        <v>74451.046875</v>
       </c>
       <c r="BB24">
         <v>0</v>
       </c>
       <c r="BC24">
-        <v>336.7941589355469</v>
+        <v>159.9979400634766</v>
       </c>
       <c r="BD24">
-        <v>336.7986450195312</v>
+        <v>160</v>
       </c>
       <c r="BE24">
-        <v>77574.5078125</v>
+        <v>36191.08203125</v>
       </c>
       <c r="BF24">
         <v>0</v>
@@ -5067,7 +5067,7 @@
         <v>160</v>
       </c>
       <c r="BI24">
-        <v>37383.63671875</v>
+        <v>36448.8671875</v>
       </c>
       <c r="BJ24">
         <v>0</v>
@@ -5078,7 +5078,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>44099</v>
+        <v>44074</v>
       </c>
       <c r="C25">
         <v>-0</v>
@@ -5114,7 +5114,7 @@
         <v>-0</v>
       </c>
       <c r="N25">
-        <v>5.109763622283936</v>
+        <v>15.04324054718018</v>
       </c>
       <c r="O25">
         <v>-0</v>
@@ -5126,7 +5126,7 @@
         <v>-0</v>
       </c>
       <c r="R25">
-        <v>4.352229595184326</v>
+        <v>13.65802001953125</v>
       </c>
       <c r="S25">
         <v>-0</v>
@@ -5138,7 +5138,7 @@
         <v>-0</v>
       </c>
       <c r="V25">
-        <v>6.013073444366455</v>
+        <v>15.02557849884033</v>
       </c>
       <c r="W25">
         <v>-0</v>
@@ -5150,7 +5150,7 @@
         <v>-0</v>
       </c>
       <c r="Z25">
-        <v>4.706783294677733</v>
+        <v>16.17973136901855</v>
       </c>
       <c r="AA25">
         <v>-0</v>
@@ -5162,7 +5162,7 @@
         <v>-0</v>
       </c>
       <c r="AD25">
-        <v>5.147521495819092</v>
+        <v>14.91166114807129</v>
       </c>
       <c r="AE25">
         <v>-0</v>
@@ -5174,76 +5174,76 @@
         <v>-0</v>
       </c>
       <c r="AH25">
-        <v>4.639706134796143</v>
+        <v>14.99064731597901</v>
       </c>
       <c r="AI25">
-        <v>296.5405578613281</v>
+        <v>492.021484375</v>
       </c>
       <c r="AJ25">
-        <v>296.5439453125</v>
+        <v>492.0250854492188</v>
       </c>
       <c r="AK25">
-        <v>69195.1875</v>
+        <v>113799.4296875</v>
       </c>
       <c r="AL25">
         <v>0</v>
       </c>
       <c r="AM25">
-        <v>50.87073516845703</v>
+        <v>59.07065200805664</v>
       </c>
       <c r="AN25">
-        <v>50.87073516845703</v>
+        <v>59.07065200805664</v>
       </c>
       <c r="AO25">
-        <v>11506.74609375</v>
+        <v>13361.6142578125</v>
       </c>
       <c r="AP25">
         <v>0</v>
       </c>
       <c r="AQ25">
-        <v>114.9840087890625</v>
+        <v>200</v>
       </c>
       <c r="AR25">
-        <v>114.9840087890625</v>
+        <v>200</v>
       </c>
       <c r="AS25">
-        <v>25801.892578125</v>
+        <v>45906.86328125</v>
       </c>
       <c r="AT25">
         <v>0</v>
       </c>
       <c r="AU25">
-        <v>124.1560134887695</v>
+        <v>200</v>
       </c>
       <c r="AV25">
-        <v>124.1560134887695</v>
+        <v>200</v>
       </c>
       <c r="AW25">
-        <v>29961.962890625</v>
+        <v>46349.23828125</v>
       </c>
       <c r="AX25">
         <v>0</v>
       </c>
       <c r="AY25">
-        <v>133.5037994384766</v>
+        <v>311.6222229003906</v>
       </c>
       <c r="AZ25">
-        <v>133.5037994384766</v>
+        <v>311.6222229003906</v>
       </c>
       <c r="BA25">
-        <v>31445.029296875</v>
+        <v>71018.359375</v>
       </c>
       <c r="BB25">
         <v>0</v>
       </c>
       <c r="BC25">
-        <v>324.1689758300781</v>
+        <v>9.99976634979248</v>
       </c>
       <c r="BD25">
-        <v>324.1734619140625</v>
+        <v>10</v>
       </c>
       <c r="BE25">
-        <v>74876.3671875</v>
+        <v>2261.918701171875</v>
       </c>
       <c r="BF25">
         <v>0</v>
@@ -5255,7 +5255,7 @@
         <v>160</v>
       </c>
       <c r="BI25">
-        <v>37535.36328125</v>
+        <v>36459.16015625</v>
       </c>
       <c r="BJ25">
         <v>0</v>
@@ -5266,7 +5266,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>44104</v>
+        <v>44078</v>
       </c>
       <c r="C26">
         <v>-0</v>
@@ -5302,7 +5302,7 @@
         <v>-0</v>
       </c>
       <c r="N26">
-        <v>5.019241333007812</v>
+        <v>14.19251155853271</v>
       </c>
       <c r="O26">
         <v>-0</v>
@@ -5314,7 +5314,7 @@
         <v>-0</v>
       </c>
       <c r="R26">
-        <v>4.31085729598999</v>
+        <v>12.81837749481201</v>
       </c>
       <c r="S26">
         <v>-0</v>
@@ -5326,7 +5326,7 @@
         <v>-0</v>
       </c>
       <c r="V26">
-        <v>5.959098339080811</v>
+        <v>14.08403491973877</v>
       </c>
       <c r="W26">
         <v>-0</v>
@@ -5338,7 +5338,7 @@
         <v>-0</v>
       </c>
       <c r="Z26">
-        <v>4.671452045440674</v>
+        <v>15.40273761749268</v>
       </c>
       <c r="AA26">
         <v>-0</v>
@@ -5350,7 +5350,7 @@
         <v>-0</v>
       </c>
       <c r="AD26">
-        <v>5.07334566116333</v>
+        <v>13.89498329162597</v>
       </c>
       <c r="AE26">
         <v>-0</v>
@@ -5362,88 +5362,88 @@
         <v>-0</v>
       </c>
       <c r="AH26">
-        <v>4.572107791900635</v>
+        <v>14.0560073852539</v>
       </c>
       <c r="AI26">
-        <v>293.5282897949219</v>
+        <v>470.9877319335938</v>
       </c>
       <c r="AJ26">
-        <v>293.5316467285156</v>
+        <v>470.9913330078125</v>
       </c>
       <c r="AK26">
-        <v>68366.6171875</v>
+        <v>109024.0390625</v>
       </c>
       <c r="AL26">
         <v>0</v>
       </c>
       <c r="AM26">
-        <v>50.69433975219727</v>
+        <v>58.90752792358398</v>
       </c>
       <c r="AN26">
-        <v>50.69433975219727</v>
+        <v>58.90752792358398</v>
       </c>
       <c r="AO26">
-        <v>11466.849609375</v>
+        <v>13324.71484375</v>
       </c>
       <c r="AP26">
         <v>0</v>
       </c>
       <c r="AQ26">
-        <v>109.9929428100586</v>
+        <v>200</v>
       </c>
       <c r="AR26">
-        <v>109.9929428100586</v>
+        <v>200</v>
       </c>
       <c r="AS26">
-        <v>24642.69921875</v>
+        <v>45973.04296875</v>
       </c>
       <c r="AT26">
         <v>0</v>
       </c>
       <c r="AU26">
-        <v>121.9619445800781</v>
+        <v>200</v>
       </c>
       <c r="AV26">
-        <v>121.9619445800781</v>
+        <v>200</v>
       </c>
       <c r="AW26">
-        <v>29365.638671875</v>
+        <v>46420.109375</v>
       </c>
       <c r="AX26">
         <v>0</v>
       </c>
       <c r="AY26">
-        <v>130.9002685546875</v>
+        <v>297.4486694335938</v>
       </c>
       <c r="AZ26">
-        <v>130.9002685546875</v>
+        <v>297.4486694335938</v>
       </c>
       <c r="BA26">
-        <v>30865.79296875</v>
+        <v>68545.7265625</v>
       </c>
       <c r="BB26">
         <v>0</v>
       </c>
       <c r="BC26">
-        <v>313.9862365722656</v>
+        <v>9.999722480773926</v>
       </c>
       <c r="BD26">
-        <v>313.9906921386719</v>
+        <v>10</v>
       </c>
       <c r="BE26">
-        <v>72515.1640625</v>
+        <v>2261.908935546875</v>
       </c>
       <c r="BF26">
         <v>0</v>
       </c>
       <c r="BG26">
-        <v>10.00001335144043</v>
+        <v>160</v>
       </c>
       <c r="BH26">
-        <v>10.00001335144043</v>
+        <v>160</v>
       </c>
       <c r="BI26">
-        <v>2275.148681640625</v>
+        <v>36472.22265625</v>
       </c>
       <c r="BJ26">
         <v>0</v>
@@ -5454,7 +5454,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>44106</v>
+        <v>44085</v>
       </c>
       <c r="C27">
         <v>-0</v>
@@ -5490,7 +5490,7 @@
         <v>-0</v>
       </c>
       <c r="N27">
-        <v>4.983332633972168</v>
+        <v>12.86374092102051</v>
       </c>
       <c r="O27">
         <v>-0</v>
@@ -5502,7 +5502,7 @@
         <v>-0</v>
       </c>
       <c r="R27">
-        <v>4.294358730316162</v>
+        <v>11.52237415313721</v>
       </c>
       <c r="S27">
         <v>-0</v>
@@ -5514,7 +5514,7 @@
         <v>-0</v>
       </c>
       <c r="V27">
-        <v>5.937469482421875</v>
+        <v>12.68532276153564</v>
       </c>
       <c r="W27">
         <v>-0</v>
@@ -5526,7 +5526,7 @@
         <v>-0</v>
       </c>
       <c r="Z27">
-        <v>4.657255172729492</v>
+        <v>14.1391830444336</v>
       </c>
       <c r="AA27">
         <v>-0</v>
@@ -5538,7 +5538,7 @@
         <v>-0</v>
       </c>
       <c r="AD27">
-        <v>5.046516418457031</v>
+        <v>12.32572746276855</v>
       </c>
       <c r="AE27">
         <v>-0</v>
@@ -5550,88 +5550,88 @@
         <v>-0</v>
       </c>
       <c r="AH27">
-        <v>4.542004585266113</v>
+        <v>12.56402206420898</v>
       </c>
       <c r="AI27">
-        <v>292.3561706542969</v>
+        <v>443.3326416015625</v>
       </c>
       <c r="AJ27">
-        <v>292.3595581054688</v>
+        <v>443.3362121582031</v>
       </c>
       <c r="AK27">
-        <v>68042.984375</v>
+        <v>102710.1328125</v>
       </c>
       <c r="AL27">
         <v>0</v>
       </c>
       <c r="AM27">
-        <v>50.62346649169922</v>
+        <v>58.62491607666016</v>
       </c>
       <c r="AN27">
-        <v>50.62346649169922</v>
+        <v>58.62491607666016</v>
       </c>
       <c r="AO27">
-        <v>11450.8203125</v>
+        <v>13260.7900390625</v>
       </c>
       <c r="AP27">
         <v>0</v>
       </c>
       <c r="AQ27">
-        <v>108.6271896362305</v>
+        <v>200</v>
       </c>
       <c r="AR27">
-        <v>108.6271896362305</v>
+        <v>200</v>
       </c>
       <c r="AS27">
-        <v>24335.13671875</v>
+        <v>46069.14453125</v>
       </c>
       <c r="AT27">
         <v>0</v>
       </c>
       <c r="AU27">
-        <v>121.1528244018555</v>
+        <v>200.0051422119141</v>
       </c>
       <c r="AV27">
-        <v>121.1528244018555</v>
+        <v>200.0051422119141</v>
       </c>
       <c r="AW27">
-        <v>29141.8515625</v>
+        <v>46669.328125</v>
       </c>
       <c r="AX27">
         <v>0</v>
       </c>
       <c r="AY27">
-        <v>129.9366149902344</v>
+        <v>271.0314636230469</v>
       </c>
       <c r="AZ27">
-        <v>129.9366149902344</v>
+        <v>271.0314636230469</v>
       </c>
       <c r="BA27">
-        <v>30646.759765625</v>
+        <v>63485.7578125</v>
       </c>
       <c r="BB27">
         <v>0</v>
       </c>
       <c r="BC27">
-        <v>310.1503295898438</v>
+        <v>416.4407958984375</v>
       </c>
       <c r="BD27">
-        <v>310.15478515625</v>
+        <v>416.4454650878906</v>
       </c>
       <c r="BE27">
-        <v>71611.5859375</v>
+        <v>93895.6328125</v>
       </c>
       <c r="BF27">
         <v>0</v>
       </c>
       <c r="BG27">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="BH27">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="BI27">
-        <v>2262.35400390625</v>
+        <v>36493.67578125</v>
       </c>
       <c r="BJ27">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>44109.5</v>
+        <v>44092</v>
       </c>
       <c r="C28">
         <v>-0</v>
@@ -5678,7 +5678,7 @@
         <v>-0</v>
       </c>
       <c r="N28">
-        <v>4.921824932098389</v>
+        <v>11.66929531097412</v>
       </c>
       <c r="O28">
         <v>-0</v>
@@ -5690,7 +5690,7 @@
         <v>-0</v>
       </c>
       <c r="R28">
-        <v>4.265747547149658</v>
+        <v>10.37286186218262</v>
       </c>
       <c r="S28">
         <v>-0</v>
@@ -5702,7 +5702,7 @@
         <v>-0</v>
       </c>
       <c r="V28">
-        <v>5.899713516235352</v>
+        <v>11.49570560455322</v>
       </c>
       <c r="W28">
         <v>-0</v>
@@ -5714,7 +5714,7 @@
         <v>-0</v>
       </c>
       <c r="Z28">
-        <v>4.632375240325928</v>
+        <v>12.9779691696167</v>
       </c>
       <c r="AA28">
         <v>-0</v>
@@ -5726,7 +5726,7 @@
         <v>-0</v>
       </c>
       <c r="AD28">
-        <v>4.996139526367188</v>
+        <v>11.14271354675293</v>
       </c>
       <c r="AE28">
         <v>-0</v>
@@ -5738,88 +5738,88 @@
         <v>-0</v>
       </c>
       <c r="AH28">
-        <v>4.494729995727539</v>
+        <v>11.3295726776123</v>
       </c>
       <c r="AI28">
-        <v>290.3654479980469</v>
+        <v>427.1365051269531</v>
       </c>
       <c r="AJ28">
-        <v>290.3688049316406</v>
+        <v>427.1400451660156</v>
       </c>
       <c r="AK28">
-        <v>67495.75</v>
+        <v>98986.65625</v>
       </c>
       <c r="AL28">
         <v>0</v>
       </c>
       <c r="AM28">
-        <v>50.49955368041992</v>
+        <v>58.34421539306641</v>
       </c>
       <c r="AN28">
-        <v>50.49955368041992</v>
+        <v>58.34421539306641</v>
       </c>
       <c r="AO28">
-        <v>11422.794921875</v>
+        <v>13197.2958984375</v>
       </c>
       <c r="AP28">
         <v>0</v>
       </c>
       <c r="AQ28">
-        <v>106.8042755126953</v>
+        <v>9.999927520751953</v>
       </c>
       <c r="AR28">
-        <v>106.8042755126953</v>
+        <v>9.999927520751953</v>
       </c>
       <c r="AS28">
-        <v>24051.044921875</v>
+        <v>2261.860107421875</v>
       </c>
       <c r="AT28">
         <v>0</v>
       </c>
       <c r="AU28">
-        <v>119.7932510375977</v>
+        <v>199.9999389648437</v>
       </c>
       <c r="AV28">
-        <v>119.7932510375977</v>
+        <v>199.9999389648437</v>
       </c>
       <c r="AW28">
-        <v>28766.64453125</v>
+        <v>46776.2421875</v>
       </c>
       <c r="AX28">
         <v>0</v>
       </c>
       <c r="AY28">
-        <v>128.3408203125</v>
+        <v>261.93359375</v>
       </c>
       <c r="AZ28">
-        <v>128.3408203125</v>
+        <v>261.93359375</v>
       </c>
       <c r="BA28">
-        <v>30279.55078125</v>
+        <v>62513.62109375</v>
       </c>
       <c r="BB28">
         <v>0</v>
       </c>
       <c r="BC28">
-        <v>304.1972351074219</v>
+        <v>396.8270874023438</v>
       </c>
       <c r="BD28">
-        <v>304.2016906738281</v>
+        <v>396.8317260742188</v>
       </c>
       <c r="BE28">
-        <v>70201.578125</v>
+        <v>90826.5546875</v>
       </c>
       <c r="BF28">
         <v>0</v>
       </c>
       <c r="BG28">
-        <v>136.7136077880859</v>
+        <v>160</v>
       </c>
       <c r="BH28">
-        <v>136.7136077880859</v>
+        <v>160</v>
       </c>
       <c r="BI28">
-        <v>31216.755859375</v>
+        <v>36513.921875</v>
       </c>
       <c r="BJ28">
         <v>0</v>
@@ -5830,7 +5830,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>44113</v>
+        <v>44099</v>
       </c>
       <c r="C29">
         <v>-0</v>
@@ -5866,7 +5866,7 @@
         <v>-0</v>
       </c>
       <c r="N29">
-        <v>4.861537456512451</v>
+        <v>10.65402889251709</v>
       </c>
       <c r="O29">
         <v>-0</v>
@@ -5878,7 +5878,7 @@
         <v>-0</v>
       </c>
       <c r="R29">
-        <v>4.237371921539307</v>
+        <v>9.354778289794922</v>
       </c>
       <c r="S29">
         <v>-0</v>
@@ -5890,7 +5890,7 @@
         <v>-0</v>
       </c>
       <c r="V29">
-        <v>5.862038135528564</v>
+        <v>10.47504806518555</v>
       </c>
       <c r="W29">
         <v>-0</v>
@@ -5902,7 +5902,7 @@
         <v>-0</v>
       </c>
       <c r="Z29">
-        <v>4.60744047164917</v>
+        <v>11.92294120788574</v>
       </c>
       <c r="AA29">
         <v>-0</v>
@@ -5914,7 +5914,7 @@
         <v>-0</v>
       </c>
       <c r="AD29">
-        <v>4.945496559143066</v>
+        <v>10.20962238311768</v>
       </c>
       <c r="AE29">
         <v>-0</v>
@@ -5926,88 +5926,88 @@
         <v>-0</v>
       </c>
       <c r="AH29">
-        <v>4.449284553527832</v>
+        <v>10.41604328155518</v>
       </c>
       <c r="AI29">
-        <v>288.4338073730469</v>
+        <v>406.079833984375</v>
       </c>
       <c r="AJ29">
-        <v>288.4371643066406</v>
+        <v>406.0833740234375</v>
       </c>
       <c r="AK29">
-        <v>66966.3515625</v>
+        <v>94148.9453125</v>
       </c>
       <c r="AL29">
         <v>0</v>
       </c>
       <c r="AM29">
-        <v>50.37588882446289</v>
+        <v>58.06391143798828</v>
       </c>
       <c r="AN29">
-        <v>50.37588882446289</v>
+        <v>58.06391143798828</v>
       </c>
       <c r="AO29">
-        <v>11394.8251953125</v>
+        <v>13133.8916015625</v>
       </c>
       <c r="AP29">
         <v>0</v>
       </c>
       <c r="AQ29">
-        <v>105.2546768188477</v>
+        <v>235.1183013916016</v>
       </c>
       <c r="AR29">
-        <v>105.2546768188477</v>
+        <v>235.1183013916016</v>
       </c>
       <c r="AS29">
-        <v>23762.322265625</v>
+        <v>54598.6640625</v>
       </c>
       <c r="AT29">
         <v>0</v>
       </c>
       <c r="AU29">
-        <v>118.5088043212891</v>
+        <v>200</v>
       </c>
       <c r="AV29">
-        <v>118.5088043212891</v>
+        <v>200</v>
       </c>
       <c r="AW29">
-        <v>28409.345703125</v>
+        <v>47205.23828125</v>
       </c>
       <c r="AX29">
         <v>0</v>
       </c>
       <c r="AY29">
-        <v>126.8426971435547</v>
+        <v>240.6390838623047</v>
       </c>
       <c r="AZ29">
-        <v>126.8426971435547</v>
+        <v>240.6390838623047</v>
       </c>
       <c r="BA29">
-        <v>29928.236328125</v>
+        <v>58328.3203125</v>
       </c>
       <c r="BB29">
         <v>0</v>
       </c>
       <c r="BC29">
-        <v>298.8163452148438</v>
+        <v>384.7673950195312</v>
       </c>
       <c r="BD29">
-        <v>298.82080078125</v>
+        <v>384.7720336914063</v>
       </c>
       <c r="BE29">
-        <v>68925.0546875</v>
+        <v>88207.9609375</v>
       </c>
       <c r="BF29">
         <v>0</v>
       </c>
       <c r="BG29">
-        <v>129.9815673828125</v>
+        <v>160</v>
       </c>
       <c r="BH29">
-        <v>129.9815673828125</v>
+        <v>160</v>
       </c>
       <c r="BI29">
-        <v>29679.3828125</v>
+        <v>36534.4453125</v>
       </c>
       <c r="BJ29">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>44120</v>
+        <v>44104</v>
       </c>
       <c r="C30">
         <v>-0</v>
@@ -6054,7 +6054,7 @@
         <v>-0</v>
       </c>
       <c r="N30">
-        <v>4.778975963592528</v>
+        <v>9.99228572845459</v>
       </c>
       <c r="O30">
         <v>-0</v>
@@ -6066,7 +6066,7 @@
         <v>-0</v>
       </c>
       <c r="R30">
-        <v>4.181584358215332</v>
+        <v>8.687122344970701</v>
       </c>
       <c r="S30">
         <v>-0</v>
@@ -6078,7 +6078,7 @@
         <v>-0</v>
       </c>
       <c r="V30">
-        <v>5.78541088104248</v>
+        <v>9.828543663024902</v>
       </c>
       <c r="W30">
         <v>-0</v>
@@ -6090,7 +6090,7 @@
         <v>-0</v>
       </c>
       <c r="Z30">
-        <v>4.557335376739502</v>
+        <v>11.22615432739258</v>
       </c>
       <c r="AA30">
         <v>-0</v>
@@ -6102,7 +6102,7 @@
         <v>-0</v>
       </c>
       <c r="AD30">
-        <v>4.845588684082031</v>
+        <v>9.597916603088381</v>
       </c>
       <c r="AE30">
         <v>-0</v>
@@ -6114,88 +6114,88 @@
         <v>-0</v>
       </c>
       <c r="AH30">
-        <v>4.361428260803224</v>
+        <v>9.807744026184082</v>
       </c>
       <c r="AI30">
-        <v>285.8155517578125</v>
+        <v>392.3944702148438</v>
       </c>
       <c r="AJ30">
-        <v>285.8189086914062</v>
+        <v>392.3979797363281</v>
       </c>
       <c r="AK30">
-        <v>66215.5234375</v>
+        <v>90977.96875</v>
       </c>
       <c r="AL30">
         <v>0</v>
       </c>
       <c r="AM30">
-        <v>50.13065338134766</v>
+        <v>57.86490249633789</v>
       </c>
       <c r="AN30">
-        <v>50.13065338134766</v>
+        <v>57.86490249633789</v>
       </c>
       <c r="AO30">
-        <v>11339.359375</v>
+        <v>13088.876953125</v>
       </c>
       <c r="AP30">
         <v>0</v>
       </c>
       <c r="AQ30">
-        <v>105.0257263183594</v>
+        <v>222.9291839599609</v>
       </c>
       <c r="AR30">
-        <v>105.0257263183594</v>
+        <v>222.9291839599609</v>
       </c>
       <c r="AS30">
-        <v>23728.740234375</v>
+        <v>52034.75390625</v>
       </c>
       <c r="AT30">
         <v>0</v>
       </c>
       <c r="AU30">
-        <v>10.02199363708496</v>
+        <v>200</v>
       </c>
       <c r="AV30">
-        <v>10.02199363708496</v>
+        <v>200</v>
       </c>
       <c r="AW30">
-        <v>2261.068359375</v>
+        <v>47471.37890625</v>
       </c>
       <c r="AX30">
         <v>0</v>
       </c>
       <c r="AY30">
-        <v>124.5434875488281</v>
+        <v>227.5712280273437</v>
       </c>
       <c r="AZ30">
-        <v>124.5434875488281</v>
+        <v>227.5712280273437</v>
       </c>
       <c r="BA30">
-        <v>29374.486328125</v>
+        <v>55647.58203125</v>
       </c>
       <c r="BB30">
         <v>0</v>
       </c>
       <c r="BC30">
-        <v>289.5548706054688</v>
+        <v>377.9659118652344</v>
       </c>
       <c r="BD30">
-        <v>289.559326171875</v>
+        <v>377.9705200195312</v>
       </c>
       <c r="BE30">
-        <v>66731.109375</v>
+        <v>86724.8046875</v>
       </c>
       <c r="BF30">
         <v>0</v>
       </c>
       <c r="BG30">
-        <v>124.5886917114258</v>
+        <v>10.0000057220459</v>
       </c>
       <c r="BH30">
-        <v>124.5886917114258</v>
+        <v>10.0000057220459</v>
       </c>
       <c r="BI30">
-        <v>28444.708984375</v>
+        <v>2261.97216796875</v>
       </c>
       <c r="BJ30">
         <v>0</v>
@@ -6206,7 +6206,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>44135</v>
+        <v>44106</v>
       </c>
       <c r="C31">
         <v>-0</v>
@@ -6242,7 +6242,7 @@
         <v>-0</v>
       </c>
       <c r="N31">
-        <v>4.659755229949951</v>
+        <v>9.734016418457033</v>
       </c>
       <c r="O31">
         <v>-0</v>
@@ -6254,7 +6254,7 @@
         <v>-0</v>
       </c>
       <c r="R31">
-        <v>4.066277503967285</v>
+        <v>8.428526878356934</v>
       </c>
       <c r="S31">
         <v>-0</v>
@@ -6266,7 +6266,7 @@
         <v>-0</v>
       </c>
       <c r="V31">
-        <v>5.626676559448242</v>
+        <v>9.59144115447998</v>
       </c>
       <c r="W31">
         <v>-0</v>
@@ -6278,7 +6278,7 @@
         <v>-0</v>
       </c>
       <c r="Z31">
-        <v>4.450989246368408</v>
+        <v>10.95403480529785</v>
       </c>
       <c r="AA31">
         <v>-0</v>
@@ -6290,7 +6290,7 @@
         <v>-0</v>
       </c>
       <c r="AD31">
-        <v>4.648130416870117</v>
+        <v>9.360699653625488</v>
       </c>
       <c r="AE31">
         <v>-0</v>
@@ -6302,88 +6302,88 @@
         <v>-0</v>
       </c>
       <c r="AH31">
-        <v>4.182475566864014</v>
+        <v>9.570280075073242</v>
       </c>
       <c r="AI31">
-        <v>279.6402587890625</v>
+        <v>387.302490234375</v>
       </c>
       <c r="AJ31">
-        <v>279.6435852050781</v>
+        <v>387.3060302734375</v>
       </c>
       <c r="AK31">
-        <v>64631.5234375</v>
+        <v>89795.7890625</v>
       </c>
       <c r="AL31">
         <v>0</v>
       </c>
       <c r="AM31">
-        <v>49.60750198364258</v>
+        <v>57.78516387939453</v>
       </c>
       <c r="AN31">
-        <v>49.60750198364258</v>
+        <v>57.78516387939453</v>
       </c>
       <c r="AO31">
-        <v>11221.0322265625</v>
+        <v>13070.83984375</v>
       </c>
       <c r="AP31">
         <v>0</v>
       </c>
       <c r="AQ31">
-        <v>99.7363739013672</v>
+        <v>219.5811309814453</v>
       </c>
       <c r="AR31">
-        <v>99.7363739013672</v>
+        <v>219.5811309814453</v>
       </c>
       <c r="AS31">
-        <v>22496.6484375</v>
+        <v>51341.4296875</v>
       </c>
       <c r="AT31">
         <v>0</v>
       </c>
       <c r="AU31">
-        <v>78.39090728759766</v>
+        <v>200</v>
       </c>
       <c r="AV31">
-        <v>78.39090728759766</v>
+        <v>200</v>
       </c>
       <c r="AW31">
-        <v>17481.470703125</v>
+        <v>47568.0859375</v>
       </c>
       <c r="AX31">
         <v>0</v>
       </c>
       <c r="AY31">
-        <v>119.2888870239258</v>
+        <v>222.2715301513672</v>
       </c>
       <c r="AZ31">
-        <v>119.2888870239258</v>
+        <v>222.2715301513672</v>
       </c>
       <c r="BA31">
-        <v>28190.71484375</v>
+        <v>54529.14453125</v>
       </c>
       <c r="BB31">
         <v>0</v>
       </c>
       <c r="BC31">
-        <v>268.363037109375</v>
+        <v>375.3954772949219</v>
       </c>
       <c r="BD31">
-        <v>268.3674621582031</v>
+        <v>375.4000854492188</v>
       </c>
       <c r="BE31">
-        <v>61839.09765625</v>
+        <v>86152.140625</v>
       </c>
       <c r="BF31">
         <v>0</v>
       </c>
       <c r="BG31">
-        <v>116.6078262329102</v>
+        <v>10</v>
       </c>
       <c r="BH31">
-        <v>116.6078262329102</v>
+        <v>10</v>
       </c>
       <c r="BI31">
-        <v>26612.814453125</v>
+        <v>2261.9716796875</v>
       </c>
       <c r="BJ31">
         <v>0</v>
@@ -6394,186 +6394,938 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
+        <v>44109.5</v>
+      </c>
+      <c r="C32">
+        <v>-0</v>
+      </c>
+      <c r="D32">
+        <v>-0</v>
+      </c>
+      <c r="E32">
+        <v>-0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>-0</v>
+      </c>
+      <c r="H32">
+        <v>-0</v>
+      </c>
+      <c r="I32">
+        <v>-0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>-0</v>
+      </c>
+      <c r="L32">
+        <v>-0</v>
+      </c>
+      <c r="M32">
+        <v>-0</v>
+      </c>
+      <c r="N32">
+        <v>9.31987476348877</v>
+      </c>
+      <c r="O32">
+        <v>-0</v>
+      </c>
+      <c r="P32">
+        <v>-0</v>
+      </c>
+      <c r="Q32">
+        <v>-0</v>
+      </c>
+      <c r="R32">
+        <v>8.004386901855469</v>
+      </c>
+      <c r="S32">
+        <v>-0</v>
+      </c>
+      <c r="T32">
+        <v>-0</v>
+      </c>
+      <c r="U32">
+        <v>-0</v>
+      </c>
+      <c r="V32">
+        <v>9.269190788269043</v>
+      </c>
+      <c r="W32">
+        <v>-0</v>
+      </c>
+      <c r="X32">
+        <v>-0</v>
+      </c>
+      <c r="Y32">
+        <v>-0</v>
+      </c>
+      <c r="Z32">
+        <v>10.50167655944824</v>
+      </c>
+      <c r="AA32">
+        <v>-0</v>
+      </c>
+      <c r="AB32">
+        <v>-0</v>
+      </c>
+      <c r="AC32">
+        <v>-0</v>
+      </c>
+      <c r="AD32">
+        <v>8.971923828125</v>
+      </c>
+      <c r="AE32">
+        <v>-0</v>
+      </c>
+      <c r="AF32">
+        <v>-0</v>
+      </c>
+      <c r="AG32">
+        <v>-0</v>
+      </c>
+      <c r="AH32">
+        <v>9.176977157592773</v>
+      </c>
+      <c r="AI32">
+        <v>379.1407470703125</v>
+      </c>
+      <c r="AJ32">
+        <v>379.1442565917969</v>
+      </c>
+      <c r="AK32">
+        <v>87895.7734375</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>57.64593505859375</v>
+      </c>
+      <c r="AN32">
+        <v>57.64593505859375</v>
+      </c>
+      <c r="AO32">
+        <v>13039.3466796875</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>214.9540863037109</v>
+      </c>
+      <c r="AR32">
+        <v>214.9540863037109</v>
+      </c>
+      <c r="AS32">
+        <v>50384.30078125</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>200</v>
+      </c>
+      <c r="AV32">
+        <v>200</v>
+      </c>
+      <c r="AW32">
+        <v>47720.14453125</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>214.26611328125</v>
+      </c>
+      <c r="AZ32">
+        <v>214.26611328125</v>
+      </c>
+      <c r="BA32">
+        <v>52813.94921875</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>371.3176879882812</v>
+      </c>
+      <c r="BD32">
+        <v>371.3222961425781</v>
+      </c>
+      <c r="BE32">
+        <v>85223.2109375</v>
+      </c>
+      <c r="BF32">
+        <v>0</v>
+      </c>
+      <c r="BG32">
+        <v>183.0405883789062</v>
+      </c>
+      <c r="BH32">
+        <v>183.0405883789062</v>
+      </c>
+      <c r="BI32">
+        <v>41858.13671875</v>
+      </c>
+      <c r="BJ32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:62">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44113</v>
+      </c>
+      <c r="C33">
+        <v>-0</v>
+      </c>
+      <c r="D33">
+        <v>-0</v>
+      </c>
+      <c r="E33">
+        <v>-0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>-0</v>
+      </c>
+      <c r="H33">
+        <v>-0</v>
+      </c>
+      <c r="I33">
+        <v>-0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>-0</v>
+      </c>
+      <c r="L33">
+        <v>-0</v>
+      </c>
+      <c r="M33">
+        <v>-0</v>
+      </c>
+      <c r="N33">
+        <v>8.931726455688477</v>
+      </c>
+      <c r="O33">
+        <v>-0</v>
+      </c>
+      <c r="P33">
+        <v>-0</v>
+      </c>
+      <c r="Q33">
+        <v>-0</v>
+      </c>
+      <c r="R33">
+        <v>7.605897426605225</v>
+      </c>
+      <c r="S33">
+        <v>-0</v>
+      </c>
+      <c r="T33">
+        <v>-0</v>
+      </c>
+      <c r="U33">
+        <v>-0</v>
+      </c>
+      <c r="V33">
+        <v>9.054465293884276</v>
+      </c>
+      <c r="W33">
+        <v>-0</v>
+      </c>
+      <c r="X33">
+        <v>-0</v>
+      </c>
+      <c r="Y33">
+        <v>-0</v>
+      </c>
+      <c r="Z33">
+        <v>10.07022571563721</v>
+      </c>
+      <c r="AA33">
+        <v>-0</v>
+      </c>
+      <c r="AB33">
+        <v>-0</v>
+      </c>
+      <c r="AC33">
+        <v>-0</v>
+      </c>
+      <c r="AD33">
+        <v>8.607422828674316</v>
+      </c>
+      <c r="AE33">
+        <v>-0</v>
+      </c>
+      <c r="AF33">
+        <v>-0</v>
+      </c>
+      <c r="AG33">
+        <v>-0</v>
+      </c>
+      <c r="AH33">
+        <v>8.804808616638184</v>
+      </c>
+      <c r="AI33">
+        <v>371.7182922363281</v>
+      </c>
+      <c r="AJ33">
+        <v>371.7218017578125</v>
+      </c>
+      <c r="AK33">
+        <v>86167.890625</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>57.50708389282226</v>
+      </c>
+      <c r="AN33">
+        <v>57.50708389282226</v>
+      </c>
+      <c r="AO33">
+        <v>13007.939453125</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>210.8884887695312</v>
+      </c>
+      <c r="AR33">
+        <v>210.8884887695312</v>
+      </c>
+      <c r="AS33">
+        <v>49531.390625</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>200.0587310791016</v>
+      </c>
+      <c r="AV33">
+        <v>200.0587310791016</v>
+      </c>
+      <c r="AW33">
+        <v>48246.77734375</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>207.1686401367188</v>
+      </c>
+      <c r="AZ33">
+        <v>207.1686401367188</v>
+      </c>
+      <c r="BA33">
+        <v>51260.04296875</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>367.5797119140625</v>
+      </c>
+      <c r="BD33">
+        <v>367.5842895507812</v>
+      </c>
+      <c r="BE33">
+        <v>84358.2109375</v>
+      </c>
+      <c r="BF33">
+        <v>0</v>
+      </c>
+      <c r="BG33">
+        <v>180.1599731445312</v>
+      </c>
+      <c r="BH33">
+        <v>180.1599731445312</v>
+      </c>
+      <c r="BI33">
+        <v>41227.984375</v>
+      </c>
+      <c r="BJ33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:62">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44120</v>
+      </c>
+      <c r="C34">
+        <v>-0</v>
+      </c>
+      <c r="D34">
+        <v>-0</v>
+      </c>
+      <c r="E34">
+        <v>-0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>-0</v>
+      </c>
+      <c r="H34">
+        <v>-0</v>
+      </c>
+      <c r="I34">
+        <v>-0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>-0</v>
+      </c>
+      <c r="L34">
+        <v>-0</v>
+      </c>
+      <c r="M34">
+        <v>-0</v>
+      </c>
+      <c r="N34">
+        <v>8.246171951293945</v>
+      </c>
+      <c r="O34">
+        <v>-0</v>
+      </c>
+      <c r="P34">
+        <v>-0</v>
+      </c>
+      <c r="Q34">
+        <v>-0</v>
+      </c>
+      <c r="R34">
+        <v>6.901891708374023</v>
+      </c>
+      <c r="S34">
+        <v>-0</v>
+      </c>
+      <c r="T34">
+        <v>-0</v>
+      </c>
+      <c r="U34">
+        <v>-0</v>
+      </c>
+      <c r="V34">
+        <v>8.657368659973145</v>
+      </c>
+      <c r="W34">
+        <v>-0</v>
+      </c>
+      <c r="X34">
+        <v>-0</v>
+      </c>
+      <c r="Y34">
+        <v>-0</v>
+      </c>
+      <c r="Z34">
+        <v>9.29450511932373</v>
+      </c>
+      <c r="AA34">
+        <v>-0</v>
+      </c>
+      <c r="AB34">
+        <v>-0</v>
+      </c>
+      <c r="AC34">
+        <v>-0</v>
+      </c>
+      <c r="AD34">
+        <v>7.963070869445801</v>
+      </c>
+      <c r="AE34">
+        <v>-0</v>
+      </c>
+      <c r="AF34">
+        <v>-0</v>
+      </c>
+      <c r="AG34">
+        <v>-0</v>
+      </c>
+      <c r="AH34">
+        <v>8.140039443969728</v>
+      </c>
+      <c r="AI34">
+        <v>368.4204406738281</v>
+      </c>
+      <c r="AJ34">
+        <v>368.4239196777344</v>
+      </c>
+      <c r="AK34">
+        <v>85348.6328125</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>57.23054122924805</v>
+      </c>
+      <c r="AN34">
+        <v>57.23054122924805</v>
+      </c>
+      <c r="AO34">
+        <v>12945.3857421875</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>209.5025939941406</v>
+      </c>
+      <c r="AR34">
+        <v>209.5025939941406</v>
+      </c>
+      <c r="AS34">
+        <v>49297.546875</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>9.999165534973145</v>
+      </c>
+      <c r="AV34">
+        <v>9.999165534973145</v>
+      </c>
+      <c r="AW34">
+        <v>2264.07177734375</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>199.771011352539</v>
+      </c>
+      <c r="AZ34">
+        <v>199.771011352539</v>
+      </c>
+      <c r="BA34">
+        <v>49592.45703125</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>360.9718933105469</v>
+      </c>
+      <c r="BD34">
+        <v>360.9765014648438</v>
+      </c>
+      <c r="BE34">
+        <v>82811.953125</v>
+      </c>
+      <c r="BF34">
+        <v>0</v>
+      </c>
+      <c r="BG34">
+        <v>176.8635101318359</v>
+      </c>
+      <c r="BH34">
+        <v>176.8635101318359</v>
+      </c>
+      <c r="BI34">
+        <v>40510.51953125</v>
+      </c>
+      <c r="BJ34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:62">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44135</v>
+      </c>
+      <c r="C35">
+        <v>-0</v>
+      </c>
+      <c r="D35">
+        <v>-0</v>
+      </c>
+      <c r="E35">
+        <v>-0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>-0</v>
+      </c>
+      <c r="H35">
+        <v>-0</v>
+      </c>
+      <c r="I35">
+        <v>-0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>-0</v>
+      </c>
+      <c r="L35">
+        <v>-0</v>
+      </c>
+      <c r="M35">
+        <v>-0</v>
+      </c>
+      <c r="N35">
+        <v>7.196599960327148</v>
+      </c>
+      <c r="O35">
+        <v>-0</v>
+      </c>
+      <c r="P35">
+        <v>-0</v>
+      </c>
+      <c r="Q35">
+        <v>-0</v>
+      </c>
+      <c r="R35">
+        <v>5.720249652862549</v>
+      </c>
+      <c r="S35">
+        <v>-0</v>
+      </c>
+      <c r="T35">
+        <v>-0</v>
+      </c>
+      <c r="U35">
+        <v>-0</v>
+      </c>
+      <c r="V35">
+        <v>8.098254203796388</v>
+      </c>
+      <c r="W35">
+        <v>-0</v>
+      </c>
+      <c r="X35">
+        <v>-0</v>
+      </c>
+      <c r="Y35">
+        <v>-0</v>
+      </c>
+      <c r="Z35">
+        <v>7.9565749168396</v>
+      </c>
+      <c r="AA35">
+        <v>-0</v>
+      </c>
+      <c r="AB35">
+        <v>-0</v>
+      </c>
+      <c r="AC35">
+        <v>-0</v>
+      </c>
+      <c r="AD35">
+        <v>6.91118860244751</v>
+      </c>
+      <c r="AE35">
+        <v>-0</v>
+      </c>
+      <c r="AF35">
+        <v>-0</v>
+      </c>
+      <c r="AG35">
+        <v>-0</v>
+      </c>
+      <c r="AH35">
+        <v>7.019269466400146</v>
+      </c>
+      <c r="AI35">
+        <v>344.6539306640625</v>
+      </c>
+      <c r="AJ35">
+        <v>344.6573791503906</v>
+      </c>
+      <c r="AK35">
+        <v>79685.4140625</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>56.64407730102539</v>
+      </c>
+      <c r="AN35">
+        <v>56.64407730102539</v>
+      </c>
+      <c r="AO35">
+        <v>12812.7294921875</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>189.0159759521484</v>
+      </c>
+      <c r="AR35">
+        <v>189.0159759521484</v>
+      </c>
+      <c r="AS35">
+        <v>44638.04296875</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>160.6746368408203</v>
+      </c>
+      <c r="AV35">
+        <v>160.6746368408203</v>
+      </c>
+      <c r="AW35">
+        <v>37671.8671875</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>179.7148284912109</v>
+      </c>
+      <c r="AZ35">
+        <v>179.7148284912109</v>
+      </c>
+      <c r="BA35">
+        <v>44750.96875</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>348.9408874511719</v>
+      </c>
+      <c r="BD35">
+        <v>348.9454345703125</v>
+      </c>
+      <c r="BE35">
+        <v>80006.5625</v>
+      </c>
+      <c r="BF35">
+        <v>0</v>
+      </c>
+      <c r="BG35">
+        <v>171.3119049072266</v>
+      </c>
+      <c r="BH35">
+        <v>171.3119049072266</v>
+      </c>
+      <c r="BI35">
+        <v>39337.7109375</v>
+      </c>
+      <c r="BJ35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:62">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
         <v>44165</v>
       </c>
-      <c r="C32">
-        <v>-0</v>
-      </c>
-      <c r="D32">
-        <v>-0</v>
-      </c>
-      <c r="E32">
-        <v>-0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>-0</v>
-      </c>
-      <c r="H32">
-        <v>-0</v>
-      </c>
-      <c r="I32">
-        <v>-0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>-0</v>
-      </c>
-      <c r="L32">
-        <v>-0</v>
-      </c>
-      <c r="M32">
-        <v>-0</v>
-      </c>
-      <c r="N32">
-        <v>4.461183071136475</v>
-      </c>
-      <c r="O32">
-        <v>-0</v>
-      </c>
-      <c r="P32">
-        <v>-0</v>
-      </c>
-      <c r="Q32">
-        <v>-0</v>
-      </c>
-      <c r="R32">
-        <v>3.849994659423828</v>
-      </c>
-      <c r="S32">
-        <v>-0</v>
-      </c>
-      <c r="T32">
-        <v>-0</v>
-      </c>
-      <c r="U32">
-        <v>-0</v>
-      </c>
-      <c r="V32">
-        <v>5.326260566711426</v>
-      </c>
-      <c r="W32">
-        <v>-0</v>
-      </c>
-      <c r="X32">
-        <v>-0</v>
-      </c>
-      <c r="Y32">
-        <v>-0</v>
-      </c>
-      <c r="Z32">
-        <v>4.24520206451416</v>
-      </c>
-      <c r="AA32">
-        <v>-0</v>
-      </c>
-      <c r="AB32">
-        <v>-0</v>
-      </c>
-      <c r="AC32">
-        <v>-0</v>
-      </c>
-      <c r="AD32">
-        <v>4.303940296173097</v>
-      </c>
-      <c r="AE32">
-        <v>-0</v>
-      </c>
-      <c r="AF32">
-        <v>-0</v>
-      </c>
-      <c r="AG32">
-        <v>-0</v>
-      </c>
-      <c r="AH32">
-        <v>3.868259191513062</v>
-      </c>
-      <c r="AI32">
-        <v>262.6655883789062</v>
-      </c>
-      <c r="AJ32">
-        <v>262.6688537597656</v>
-      </c>
-      <c r="AK32">
-        <v>60703.359375</v>
-      </c>
-      <c r="AL32">
-        <v>0</v>
-      </c>
-      <c r="AM32">
-        <v>48.58327102661133</v>
-      </c>
-      <c r="AN32">
-        <v>48.58327102661133</v>
-      </c>
-      <c r="AO32">
-        <v>10989.3662109375</v>
-      </c>
-      <c r="AP32">
-        <v>0</v>
-      </c>
-      <c r="AQ32">
-        <v>90.5435791015625</v>
-      </c>
-      <c r="AR32">
-        <v>90.5435791015625</v>
-      </c>
-      <c r="AS32">
-        <v>20319.974609375</v>
-      </c>
-      <c r="AT32">
-        <v>0</v>
-      </c>
-      <c r="AU32">
-        <v>71.87432861328125</v>
-      </c>
-      <c r="AV32">
-        <v>71.87432861328125</v>
-      </c>
-      <c r="AW32">
-        <v>16069.140625</v>
-      </c>
-      <c r="AX32">
-        <v>0</v>
-      </c>
-      <c r="AY32">
-        <v>111.7594909667969</v>
-      </c>
-      <c r="AZ32">
-        <v>111.7594909667969</v>
-      </c>
-      <c r="BA32">
-        <v>26483.48046875</v>
-      </c>
-      <c r="BB32">
-        <v>0</v>
-      </c>
-      <c r="BC32">
-        <v>228.1489868164062</v>
-      </c>
-      <c r="BD32">
-        <v>228.153335571289</v>
-      </c>
-      <c r="BE32">
-        <v>52591.46484375</v>
-      </c>
-      <c r="BF32">
-        <v>0</v>
-      </c>
-      <c r="BG32">
-        <v>105.2966156005859</v>
-      </c>
-      <c r="BH32">
-        <v>105.2966156005859</v>
-      </c>
-      <c r="BI32">
-        <v>24008.1640625</v>
-      </c>
-      <c r="BJ32">
+      <c r="C36">
+        <v>-0</v>
+      </c>
+      <c r="D36">
+        <v>-0</v>
+      </c>
+      <c r="E36">
+        <v>-0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>-0</v>
+      </c>
+      <c r="H36">
+        <v>-0</v>
+      </c>
+      <c r="I36">
+        <v>-0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>-0</v>
+      </c>
+      <c r="L36">
+        <v>-0</v>
+      </c>
+      <c r="M36">
+        <v>-0</v>
+      </c>
+      <c r="N36">
+        <v>6.258707523345947</v>
+      </c>
+      <c r="O36">
+        <v>-0</v>
+      </c>
+      <c r="P36">
+        <v>-0</v>
+      </c>
+      <c r="Q36">
+        <v>-0</v>
+      </c>
+      <c r="R36">
+        <v>4.744200706481934</v>
+      </c>
+      <c r="S36">
+        <v>-0</v>
+      </c>
+      <c r="T36">
+        <v>-0</v>
+      </c>
+      <c r="U36">
+        <v>-0</v>
+      </c>
+      <c r="V36">
+        <v>7.139584541320801</v>
+      </c>
+      <c r="W36">
+        <v>-0</v>
+      </c>
+      <c r="X36">
+        <v>-0</v>
+      </c>
+      <c r="Y36">
+        <v>-0</v>
+      </c>
+      <c r="Z36">
+        <v>6.124610900878906</v>
+      </c>
+      <c r="AA36">
+        <v>-0</v>
+      </c>
+      <c r="AB36">
+        <v>-0</v>
+      </c>
+      <c r="AC36">
+        <v>-0</v>
+      </c>
+      <c r="AD36">
+        <v>5.993073463439941</v>
+      </c>
+      <c r="AE36">
+        <v>-0</v>
+      </c>
+      <c r="AF36">
+        <v>-0</v>
+      </c>
+      <c r="AG36">
+        <v>-0</v>
+      </c>
+      <c r="AH36">
+        <v>5.59890079498291</v>
+      </c>
+      <c r="AI36">
+        <v>315.0965881347656</v>
+      </c>
+      <c r="AJ36">
+        <v>315.0999755859375</v>
+      </c>
+      <c r="AK36">
+        <v>72634.2109375</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>55.49209976196289</v>
+      </c>
+      <c r="AN36">
+        <v>55.49209976196289</v>
+      </c>
+      <c r="AO36">
+        <v>12552.1552734375</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
+      <c r="AQ36">
+        <v>158.9368438720703</v>
+      </c>
+      <c r="AR36">
+        <v>158.9368438720703</v>
+      </c>
+      <c r="AS36">
+        <v>37533.05859375</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
+      <c r="AU36">
+        <v>133.3096160888672</v>
+      </c>
+      <c r="AV36">
+        <v>133.3096160888672</v>
+      </c>
+      <c r="AW36">
+        <v>31316.47265625</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>153.6107940673828</v>
+      </c>
+      <c r="AZ36">
+        <v>153.6107940673828</v>
+      </c>
+      <c r="BA36">
+        <v>37982.0390625</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BC36">
+        <v>329.2080993652344</v>
+      </c>
+      <c r="BD36">
+        <v>329.2126159667969</v>
+      </c>
+      <c r="BE36">
+        <v>75495.203125</v>
+      </c>
+      <c r="BF36">
+        <v>0</v>
+      </c>
+      <c r="BG36">
+        <v>161.8557739257812</v>
+      </c>
+      <c r="BH36">
+        <v>161.8557739257812</v>
+      </c>
+      <c r="BI36">
+        <v>37225.8046875</v>
+      </c>
+      <c r="BJ36">
         <v>0</v>
       </c>
     </row>
